--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_36.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2935563.002882415</v>
+        <v>2941807.785631011</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10908298.50741417</v>
+        <v>10906349.75204299</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1554851.299743203</v>
+        <v>1555926.763495862</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8049676.537223514</v>
+        <v>8050763.537664906</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,16 +1427,16 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>269.744773806899</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.29722073374756</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1546,7 +1546,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124607</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1582,7 +1582,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1607,7 +1607,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>311.5729756915633</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>199.8651984574939</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
-        <v>49.00002854263456</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>30.05161693821722</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2020,7 +2020,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2084,10 +2084,10 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>180.3615956913143</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>179.4384479484351</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128487</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
         <v>172.5738126575766</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403102</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2494,7 +2494,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
-        <v>323.6959619980815</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143945</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T26" t="n">
-        <v>154.3769765426114</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>286.1753286972089</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
-        <v>307.6640389444871</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>344.6610088831276</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633435</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861022</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>29.25600601213861</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712137</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>210.560713550902</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>244.946068563665</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572905</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,7 +3004,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.23670158702</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124503</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3275,13 +3275,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>76.12595279438928</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>179.438447948434</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>302.2658320988205</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>208.4123957341119</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
@@ -3509,7 +3509,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
         <v>280.7771218515423</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>169.1073718894835</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
         <v>49.37728379124553</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3715,7 +3715,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.335634817814</v>
+        <v>255.7871767362528</v>
       </c>
       <c r="C41" t="n">
-        <v>359.8746849253409</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>349.2848347750163</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>405.5235188077868</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>289.2095575416539</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292589</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>110.6621846294326</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>245.5969651132354</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8427618717464</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>364.3328938328024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.839731810387</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.4337733362707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>161.8486142529612</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>143.2172661725457</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6276014133616</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.4254692444076</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>90.95421356417151</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.53394582438077</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>184.3708184857753</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>214.1507424305026</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>280.8136313599463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>281.1247914909244</v>
+        <v>181.4487096095775</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>100.906892688255</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>205.1127822067345</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>80.74132501830962</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1312.511305367893</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>990.9984213755544</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
@@ -5039,19 +5039,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2677.383608767879</v>
+        <v>2625.686359146727</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.064586445838</v>
+        <v>2320.367336824686</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.064586445838</v>
+        <v>1994.35121151168</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1651.661512483941</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052949</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254612</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611989</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268791</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F13" t="n">
-        <v>335.408918177042</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998342</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657653</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337115</v>
@@ -5215,7 +5215,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5239,10 +5239,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874612</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1644.057218491951</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1644.057218491951</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1333.241152833274</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>994.9025331831027</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>631.3662613415685</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5306,7 +5306,7 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
         <v>2898.155827638544</v>
@@ -5315,13 +5315,13 @@
         <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2412.658534397094</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607999</v>
+        <v>2086.642409084087</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.207425607999</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5440,7 +5440,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5476,10 +5476,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923808</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822733</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G17" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3276.110843283277</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U17" t="n">
-        <v>3276.110843283277</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V17" t="n">
-        <v>2992.49758888778</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="W17" t="n">
-        <v>2687.178566565739</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X17" t="n">
-        <v>2361.162441252732</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y17" t="n">
-        <v>2018.472742224994</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5595,10 +5595,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,10 +5610,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052944</v>
+        <v>1785.73444130672</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254608</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611984</v>
+        <v>1561.580884862624</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>1461.117424228304</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>1361.677109678467</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>1241.42390600126</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>1142.656352167191</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>1184.408325632951</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328085</v>
+        <v>1434.900893834234</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337113</v>
+        <v>1797.966077535137</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>2188.628508387093</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>2576.542270345364</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>2922.377254518184</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>3201.49014020425</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>3283.224997314772</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>3138.988746089672</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>2964.671763607271</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>2723.018529680988</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921749</v>
+        <v>2515.783674423174</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832862</v>
+        <v>2273.816137334287</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>2093.276219384343</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1768.338774781834</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C20" t="n">
-        <v>1446.825890789496</v>
+        <v>979.8546354718744</v>
       </c>
       <c r="D20" t="n">
-        <v>1136.009825130819</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E20" t="n">
-        <v>797.6712054806479</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391137</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3262.764786084341</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>3262.764786084341</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>3081.513828560669</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2776.194806238628</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2450.178680925621</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y20" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5820,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E22" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998337</v>
@@ -5905,16 +5905,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5929,10 +5929,10 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
         <v>2112.720554588247</v>
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J23" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>603.845421545561</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2568.163811692541</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O23" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P23" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q23" t="n">
-        <v>3998.328778277657</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
         <v>3629.895850863832</v>
@@ -6029,10 +6029,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R24" t="n">
         <v>2579.543989590362</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643397</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302708</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973148</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6166,31 +6166,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2065.823947814752</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1738.858329634872</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.589529788652</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1078.798175950939</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>709.809169921863</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G26" t="n">
-        <v>336.7336185273907</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>727.1188267890172</v>
+        <v>625.3777437664576</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.153040037426</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M26" t="n">
-        <v>1711.68494470935</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N26" t="n">
-        <v>2258.463761768132</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647469</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>4057.345844834458</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3901.409504892426</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3689.875926926794</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3400.809938343755</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3090.038181834172</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2758.569322333623</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2410.426889118343</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2468.399856844129</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C28" t="n">
-        <v>2341.460572676754</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D28" t="n">
-        <v>2233.340832024949</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>2127.424637203088</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.531588465708</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>1896.825650600959</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>1867.274129376576</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>1867.274129376576</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>1953.557922298708</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>2198.706265722782</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>2556.427224646474</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M28" t="n">
-        <v>2941.74543072122</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>3324.314967902281</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>3664.805727297891</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>3938.574388206747</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>4009.512286352518</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>3859.823300939875</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>3680.053584269932</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>3432.947616156107</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>3220.260026710752</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>2972.839755434322</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>2786.847103296836</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y28" t="n">
-        <v>2608.051422913838</v>
+        <v>908.2998821519656</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2568.163811692541</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3071.136282571877</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
         <v>3750.042416521973</v>
@@ -6540,25 +6540,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899673</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257049</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913851</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641548</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643403</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6640,22 +6640,22 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297368</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519673</v>
       </c>
     </row>
     <row r="32">
@@ -6680,61 +6680,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.20875468258</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O32" t="n">
-        <v>3083.181225561917</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P32" t="n">
         <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6774,31 +6774,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2517.474464532007</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>2395.987914552174</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>2293.320908087911</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>2192.857447453591</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>2093.417132903754</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>1973.163929226546</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>1874.396375392477</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>1824.520331158897</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>1916.148348858239</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>2166.640917059522</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>2529.706100760424</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>2920.36853161238</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>3308.282293570651</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>3654.117277743471</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>3933.230163429537</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>4014.965020540059</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>3870.728769314959</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>3696.411786832558</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>3454.758552906275</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>3247.523697648462</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>3005.556160559574</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>2825.01624260963</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>2651.673296414173</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1364.208554989044</v>
+        <v>1949.589732305505</v>
       </c>
       <c r="C35" t="n">
-        <v>1042.695670996706</v>
+        <v>1628.076848313167</v>
       </c>
       <c r="D35" t="n">
-        <v>731.8796053380283</v>
+        <v>1317.26078265449</v>
       </c>
       <c r="E35" t="n">
-        <v>393.5409856878574</v>
+        <v>978.9221630043186</v>
       </c>
       <c r="F35" t="n">
-        <v>316.646083875343</v>
+        <v>615.3858911627843</v>
       </c>
       <c r="G35" t="n">
-        <v>316.646083875343</v>
+        <v>247.7630739558541</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6941,10 +6941,10 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6962,25 +6962,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T35" t="n">
-        <v>3167.077706941466</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U35" t="n">
-        <v>2960.996863163376</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V35" t="n">
-        <v>2677.383608767878</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="W35" t="n">
-        <v>2372.064586445837</v>
+        <v>2957.445763762299</v>
       </c>
       <c r="X35" t="n">
-        <v>2046.048461132831</v>
+        <v>2631.429638449292</v>
       </c>
       <c r="Y35" t="n">
-        <v>1703.358762105092</v>
+        <v>2288.739939421554</v>
       </c>
     </row>
     <row r="36">
@@ -7005,10 +7005,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7017,10 +7017,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,10 +7032,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F37" t="n">
         <v>335.4089181770414</v>
@@ -7096,7 +7096,7 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L37" t="n">
         <v>771.6978860337113</v>
@@ -7105,40 +7105,40 @@
         <v>1162.360316885667</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V37" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2018.472742224994</v>
+        <v>1430.000155131663</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.959858232656</v>
+        <v>1108.487271139325</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573978</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F38" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U38" t="n">
-        <v>3104.236671416633</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V38" t="n">
-        <v>2820.623417021136</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W38" t="n">
-        <v>2515.304394699095</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X38" t="n">
-        <v>2189.288269386088</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y38" t="n">
-        <v>2018.472742224994</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M39" t="n">
         <v>1212.42807043813</v>
@@ -7269,34 +7269,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
         <v>1162.360316885667</v>
@@ -7351,31 +7351,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V40" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1484.585445775414</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C41" t="n">
-        <v>1121.075663022544</v>
+        <v>934.5673701373256</v>
       </c>
       <c r="D41" t="n">
-        <v>768.2626986033358</v>
+        <v>934.5673701373256</v>
       </c>
       <c r="E41" t="n">
-        <v>768.2626986033358</v>
+        <v>934.5673701373256</v>
       </c>
       <c r="F41" t="n">
-        <v>768.2626986033358</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G41" t="n">
-        <v>358.6429826358743</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7424,37 +7424,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3213.825837134995</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>2965.748094596373</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V41" t="n">
-        <v>2965.748094596373</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W41" t="n">
-        <v>2618.432173513801</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X41" t="n">
-        <v>2250.419149440263</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y41" t="n">
-        <v>1865.732551651994</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="42">
@@ -7479,22 +7479,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7503,13 +7503,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>739.3132928437468</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>575.8298441033819</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>431.1659388785882</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>431.1659388785882</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>431.1659388785882</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>268.9158364408492</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>158.385059426296</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>116.9789736563288</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>326.3103813824151</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>648.214404608121</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>997.7156749848798</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.468276467954</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.142100165577</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1887.093825376447</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1970.048346306171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1885.670623251241</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1699.437473265609</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1483.123592022677</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1199.473459335863</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1199.473459335863</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W43" t="n">
-        <v>915.5090234864444</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X43" t="n">
-        <v>915.5090234864444</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.5090234864444</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>2107.513093752762</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1738.55057681235</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1380.284878205599</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767944</v>
+        <v>994.4966256073551</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>583.5107208177476</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218336</v>
+        <v>168.4382706627441</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329462</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001386</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060168</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052365</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609168</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609168</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609168</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609168</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V44" t="n">
-        <v>3118.421193117517</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W44" t="n">
-        <v>2765.652537847403</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X44" t="n">
-        <v>2392.186779586323</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>2494.112933816883</v>
       </c>
     </row>
     <row r="45">
@@ -7716,31 +7716,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.411984886741</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>549.3683227675135</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218336</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T46" t="n">
-        <v>1645.778206672846</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U46" t="n">
-        <v>1356.675339798489</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V46" t="n">
-        <v>1101.990851592602</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W46" t="n">
-        <v>812.5736815556418</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X46" t="n">
-        <v>731.0167875977533</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y46" t="n">
-        <v>731.0167875977533</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
   </sheetData>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>204.9488929688207</v>
+        <v>205.7291124296671</v>
       </c>
       <c r="L5" t="n">
-        <v>216.9827176214138</v>
+        <v>217.9506488543178</v>
       </c>
       <c r="M5" t="n">
-        <v>209.4457506959755</v>
+        <v>210.5227606929633</v>
       </c>
       <c r="N5" t="n">
-        <v>208.1743894071555</v>
+        <v>209.2688265518739</v>
       </c>
       <c r="O5" t="n">
-        <v>210.0431336424972</v>
+        <v>211.0765796036711</v>
       </c>
       <c r="P5" t="n">
-        <v>214.1164508613542</v>
+        <v>214.9984730795989</v>
       </c>
       <c r="Q5" t="n">
-        <v>209.4518774951218</v>
+        <v>210.1142394483069</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.8206749401529</v>
+        <v>121.1307308037506</v>
       </c>
       <c r="K6" t="n">
-        <v>127.5575101077763</v>
+        <v>128.087444963636</v>
       </c>
       <c r="L6" t="n">
-        <v>124.726368303106</v>
+        <v>125.4389311148325</v>
       </c>
       <c r="M6" t="n">
-        <v>125.9973967537949</v>
+        <v>126.8289239456632</v>
       </c>
       <c r="N6" t="n">
-        <v>114.7779861453295</v>
+        <v>115.6315213876802</v>
       </c>
       <c r="O6" t="n">
-        <v>127.4436711976968</v>
+        <v>128.2244891928028</v>
       </c>
       <c r="P6" t="n">
-        <v>121.8131315093604</v>
+        <v>122.4398067885634</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.8522832059112</v>
+        <v>132.2711990340596</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.9466836733536</v>
+        <v>127.3557315210244</v>
       </c>
       <c r="M7" t="n">
-        <v>130.5562837312815</v>
+        <v>130.9875673339101</v>
       </c>
       <c r="N7" t="n">
-        <v>119.5150522573011</v>
+        <v>119.9360808998253</v>
       </c>
       <c r="O7" t="n">
-        <v>130.9097664653324</v>
+        <v>131.2986545621641</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2704368695403</v>
+        <v>131.6031978188745</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.614797267597169e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>287.0017854473931</v>
+        <v>277.2206841544139</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>124.5185911550064</v>
+        <v>21.7498204251479</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>274.8351763665426</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>287.0017854473919</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>274.8351763665443</v>
+        <v>287.0017854473908</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.18370833497204</v>
+        <v>15.1898419549388</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>11.0323480446433</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>324.9655813037135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>52.37361334329762</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>102.4006336413266</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23780,19 +23780,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>107.942804978393</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>272.2142151606033</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,10 +23972,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>127.3463093107761</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,13 +24020,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>101.3386739031073</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524987</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>7.964063824082785</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>73.92207912925619</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691213</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25163,13 +25163,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>283.7749563287296</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>68.19417982029393</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,16 +25202,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.758705044888</v>
+        <v>127.3463093107761</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25445,7 +25445,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>170.1554301479775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>126.9466649272277</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>376.5321632265952</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
-        <v>401.4778388960448</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873204</v>
       </c>
       <c r="I41" t="n">
-        <v>36.1787229272594</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.7895549425093</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>87.85757866452091</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.9951719589019</v>
       </c>
       <c r="V41" t="n">
-        <v>322.3540516244683</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0357558009026</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>140.0228411772646</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>29.93133882424655</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7394364781614</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="X43" t="n">
-        <v>220.3114485433705</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1864465064282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>193.7008716990654</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>122.6394762634004</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>144.9683303707275</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>776704.9425741008</v>
+        <v>777016.3284327619</v>
       </c>
     </row>
     <row r="4">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730707.8707467607</v>
+        <v>730707.8707467606</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722969.0428710415</v>
+        <v>730707.8707467606</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659610.4618465635</v>
+        <v>659610.4618465636</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>597558.2422416592</v>
+        <v>589454.1716907624</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>589454.171690762</v>
+        <v>589454.1716907624</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737349.7629178475</v>
+        <v>737349.7629178474</v>
       </c>
       <c r="C2" t="n">
-        <v>737357.2320958013</v>
+        <v>737356.7926832668</v>
       </c>
       <c r="D2" t="n">
-        <v>737416.3214963147</v>
+        <v>737416.3214963146</v>
       </c>
       <c r="E2" t="n">
+        <v>688077.9089008586</v>
+      </c>
+      <c r="F2" t="n">
         <v>688077.9089008588</v>
       </c>
-      <c r="F2" t="n">
-        <v>688077.9089008585</v>
-      </c>
       <c r="G2" t="n">
-        <v>688077.9089008588</v>
+        <v>688077.9089008581</v>
       </c>
       <c r="H2" t="n">
-        <v>688077.9089008588</v>
+        <v>688077.9089008587</v>
       </c>
       <c r="I2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="J2" t="n">
-        <v>730743.539832975</v>
+        <v>738937.5928778559</v>
       </c>
       <c r="K2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778556</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="M2" t="n">
-        <v>688077.9089008588</v>
+        <v>688077.9089008592</v>
       </c>
       <c r="N2" t="n">
-        <v>688077.9089008583</v>
+        <v>688077.9089008587</v>
       </c>
       <c r="O2" t="n">
-        <v>622375.5587309602</v>
+        <v>613794.7781476574</v>
       </c>
       <c r="P2" t="n">
         <v>613794.7781476574</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3540.182044145911</v>
+        <v>3540.182044145884</v>
       </c>
       <c r="C3" t="n">
-        <v>23616.14021849241</v>
+        <v>22226.80017451141</v>
       </c>
       <c r="D3" t="n">
-        <v>175711.7703169804</v>
+        <v>177018.4336720202</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621993</v>
+        <v>972725.1766621995</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902286</v>
+        <v>48646.25967902289</v>
       </c>
       <c r="J3" t="n">
-        <v>33261.54381834078</v>
+        <v>37580.109294874</v>
       </c>
       <c r="K3" t="n">
-        <v>4318.56547653328</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051143</v>
+        <v>161600.4331051144</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431781.059725429</v>
+        <v>429908.1492159134</v>
       </c>
       <c r="C4" t="n">
-        <v>424772.2061475766</v>
+        <v>423408.0383856181</v>
       </c>
       <c r="D4" t="n">
-        <v>371223.4544513617</v>
+        <v>370434.2549872374</v>
       </c>
       <c r="E4" t="n">
-        <v>57819.82564689764</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="F4" t="n">
-        <v>57819.82564689765</v>
+        <v>57605.61344858621</v>
       </c>
       <c r="G4" t="n">
-        <v>57819.82564689767</v>
+        <v>57605.61344858621</v>
       </c>
       <c r="H4" t="n">
-        <v>57819.82564689773</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="I4" t="n">
-        <v>81475.81413712159</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="J4" t="n">
-        <v>76265.93634455976</v>
+        <v>80755.36360646591</v>
       </c>
       <c r="K4" t="n">
-        <v>81475.81413712156</v>
+        <v>80755.36360646594</v>
       </c>
       <c r="L4" t="n">
-        <v>81475.8141371216</v>
+        <v>80755.36360646594</v>
       </c>
       <c r="M4" t="n">
-        <v>57819.82564689768</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="N4" t="n">
-        <v>57819.82564689771</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="O4" t="n">
-        <v>16049.69410925226</v>
+        <v>10380.34706710383</v>
       </c>
       <c r="P4" t="n">
-        <v>10594.5592654152</v>
+        <v>10380.34706710378</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>33707.69021107268</v>
       </c>
       <c r="C5" t="n">
-        <v>34273.06548672893</v>
+        <v>34239.8043990542</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
       </c>
       <c r="E5" t="n">
+        <v>78255.49332178177</v>
+      </c>
+      <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
-      <c r="F5" t="n">
-        <v>78255.49332178175</v>
-      </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>88924.11982349778</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="O5" t="n">
-        <v>74760.16241270161</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139324</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268320.8309371999</v>
+        <v>270193.7414467154</v>
       </c>
       <c r="C6" t="n">
-        <v>254695.8202430034</v>
+        <v>257482.1497240831</v>
       </c>
       <c r="D6" t="n">
-        <v>151735.2918968259</v>
+        <v>151217.8280059104</v>
       </c>
       <c r="E6" t="n">
-        <v>-420722.5867300199</v>
+        <v>-420508.3745317089</v>
       </c>
       <c r="F6" t="n">
-        <v>552002.5899321791</v>
+        <v>552216.802130491</v>
       </c>
       <c r="G6" t="n">
-        <v>552002.5899321797</v>
+        <v>552216.8021304902</v>
       </c>
       <c r="H6" t="n">
-        <v>552002.5899321792</v>
+        <v>552216.8021304908</v>
       </c>
       <c r="I6" t="n">
-        <v>519437.5773869053</v>
+        <v>520158.0279175605</v>
       </c>
       <c r="J6" t="n">
-        <v>532291.9398465767</v>
+        <v>531224.1783017099</v>
       </c>
       <c r="K6" t="n">
-        <v>563765.2715893942</v>
+        <v>568804.2875965834</v>
       </c>
       <c r="L6" t="n">
-        <v>568083.8370659279</v>
+        <v>568804.2875965832</v>
       </c>
       <c r="M6" t="n">
-        <v>390402.156827065</v>
+        <v>390616.3690253769</v>
       </c>
       <c r="N6" t="n">
-        <v>552002.5899321788</v>
+        <v>552216.8021304908</v>
       </c>
       <c r="O6" t="n">
-        <v>531565.7022090063</v>
+        <v>529108.0905191603</v>
       </c>
       <c r="P6" t="n">
-        <v>528893.878320849</v>
+        <v>529108.0905191603</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>29.60850856554748</v>
+        <v>28.08277059881667</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26799,13 +26799,13 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26817,19 +26817,19 @@
         <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K2" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>25.93464567230514</v>
+        <v>24.40890770557435</v>
       </c>
       <c r="D3" t="n">
-        <v>205.1715295604467</v>
+        <v>206.6972675271775</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673041</v>
+        <v>854.9966624673043</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.202073660032603e-15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063217</v>
+        <v>182.9350058063218</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292598</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P2" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.2557945244228</v>
+        <v>338.3186104599073</v>
       </c>
       <c r="I5" t="n">
-        <v>205.8870171021717</v>
+        <v>206.1234834859401</v>
       </c>
       <c r="J5" t="n">
-        <v>1.846836474752674</v>
+        <v>2.36741980240622</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>142.3921512027353</v>
+        <v>142.7774422079721</v>
       </c>
       <c r="S5" t="n">
-        <v>206.3076921432809</v>
+        <v>206.4474620082733</v>
       </c>
       <c r="T5" t="n">
-        <v>222.5747993279678</v>
+        <v>222.6016492493723</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3361305734234</v>
+        <v>251.3366212630208</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2798309372395</v>
+        <v>137.2831127132434</v>
       </c>
       <c r="H6" t="n">
-        <v>111.6203693698801</v>
+        <v>111.6520644170758</v>
       </c>
       <c r="I6" t="n">
-        <v>87.20392726424953</v>
+        <v>87.31691823631404</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>96.20370163138001</v>
+        <v>96.40745961871059</v>
       </c>
       <c r="S6" t="n">
-        <v>170.5002273889785</v>
+        <v>170.5611849388757</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9080285120694</v>
+        <v>199.9212563723658</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9371921976872</v>
+        <v>225.9374081040033</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27786,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9375869659635</v>
+        <v>167.9403382967232</v>
       </c>
       <c r="H7" t="n">
-        <v>161.7524655996182</v>
+        <v>161.7769274312815</v>
       </c>
       <c r="I7" t="n">
-        <v>153.8448200693102</v>
+        <v>153.9275600888831</v>
       </c>
       <c r="J7" t="n">
-        <v>89.58433796725863</v>
+        <v>89.7788570519679</v>
       </c>
       <c r="K7" t="n">
-        <v>16.0662665887075</v>
+        <v>16.38592119878651</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.69115845829671</v>
+        <v>81.92154489127307</v>
       </c>
       <c r="R7" t="n">
-        <v>174.8926752564285</v>
+        <v>175.0163850922228</v>
       </c>
       <c r="S7" t="n">
-        <v>223.0861142513959</v>
+        <v>223.1340624429078</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7174582967109</v>
+        <v>227.7292139826841</v>
       </c>
       <c r="U7" t="n">
-        <v>286.316117044173</v>
+        <v>286.3162671167598</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="N16" t="n">
         <v>46.97513661859256</v>
@@ -28582,7 +28582,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859176</v>
       </c>
       <c r="K19" t="n">
         <v>46.97513661859256</v>
@@ -28764,7 +28764,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859306</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
         <v>46.97513661859256</v>
@@ -28819,7 +28819,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29056,7 +29056,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
         <v>46.97513661859256</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.9751366185917</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859219</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.3982068456666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1190291801630049</v>
+        <v>0.1128955601962478</v>
       </c>
       <c r="H5" t="n">
-        <v>1.219007591344374</v>
+        <v>1.156191655859823</v>
       </c>
       <c r="I5" t="n">
-        <v>4.588872468234249</v>
+        <v>4.352406084465849</v>
       </c>
       <c r="J5" t="n">
-        <v>10.10245287985984</v>
+        <v>9.581869552206298</v>
       </c>
       <c r="K5" t="n">
-        <v>15.14095807615984</v>
+        <v>14.36073861531347</v>
       </c>
       <c r="L5" t="n">
-        <v>18.7836973485734</v>
+        <v>17.81576611566939</v>
       </c>
       <c r="M5" t="n">
-        <v>20.90048253129724</v>
+        <v>19.82347253430942</v>
       </c>
       <c r="N5" t="n">
-        <v>21.23867418943538</v>
+        <v>20.14423704471701</v>
       </c>
       <c r="O5" t="n">
-        <v>20.0550777791895</v>
+        <v>19.02163181801557</v>
       </c>
       <c r="P5" t="n">
-        <v>17.11654489391531</v>
+        <v>16.2345226756707</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.8538123793277</v>
+        <v>12.19145042614257</v>
       </c>
       <c r="R5" t="n">
-        <v>7.476966738414361</v>
+        <v>7.091675733177559</v>
       </c>
       <c r="S5" t="n">
-        <v>2.712377442964476</v>
+        <v>2.572607577972</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5210502361635541</v>
+        <v>0.4942003147590751</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009522334413040387</v>
+        <v>0.009031644815699824</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06368622597117761</v>
+        <v>0.06040444996726604</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6150748666163732</v>
+        <v>0.5833798194207011</v>
       </c>
       <c r="I6" t="n">
-        <v>2.192705587165545</v>
+        <v>2.079714615101046</v>
       </c>
       <c r="J6" t="n">
-        <v>6.016951726513758</v>
+        <v>5.706895862916132</v>
       </c>
       <c r="K6" t="n">
-        <v>10.28392886658266</v>
+        <v>9.753994010722957</v>
       </c>
       <c r="L6" t="n">
-        <v>13.82801147676819</v>
+        <v>13.11544866504169</v>
       </c>
       <c r="M6" t="n">
-        <v>16.13663716822338</v>
+        <v>15.30510997635508</v>
       </c>
       <c r="N6" t="n">
-        <v>16.56372593800377</v>
+        <v>15.71019069565311</v>
       </c>
       <c r="O6" t="n">
-        <v>15.15257324674768</v>
+        <v>14.37175525164158</v>
       </c>
       <c r="P6" t="n">
-        <v>12.16127590496987</v>
+        <v>11.5346006257668</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.129490880110321</v>
+        <v>7.710575051961891</v>
       </c>
       <c r="R6" t="n">
-        <v>3.954132521263116</v>
+        <v>3.750374533932537</v>
       </c>
       <c r="S6" t="n">
-        <v>1.182943714859373</v>
+        <v>1.121986164962156</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2567001827522465</v>
+        <v>0.2434723224557784</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004189883287577476</v>
+        <v>0.003973976971530662</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05339239249524955</v>
+        <v>0.05064106173557104</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4747069078214009</v>
+        <v>0.4502450761580774</v>
       </c>
       <c r="I7" t="n">
-        <v>1.605654857948051</v>
+        <v>1.522914838375173</v>
       </c>
       <c r="J7" t="n">
-        <v>3.774842149414143</v>
+        <v>3.580323064704872</v>
       </c>
       <c r="K7" t="n">
-        <v>6.203225237175356</v>
+        <v>5.883570627096343</v>
       </c>
       <c r="L7" t="n">
-        <v>7.937992607884648</v>
+        <v>7.528944760213899</v>
       </c>
       <c r="M7" t="n">
-        <v>8.369500216323527</v>
+        <v>7.938216613695012</v>
       </c>
       <c r="N7" t="n">
-        <v>8.170492207932149</v>
+        <v>7.74946356540789</v>
       </c>
       <c r="O7" t="n">
-        <v>7.546771986510366</v>
+        <v>7.157883889678716</v>
       </c>
       <c r="P7" t="n">
-        <v>6.45756717960727</v>
+        <v>6.124806230273061</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.470884793397669</v>
+        <v>4.240498360421317</v>
       </c>
       <c r="R7" t="n">
-        <v>2.400716120740948</v>
+        <v>2.277006284946675</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9304837855763032</v>
+        <v>0.8825355940644514</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2281311315706117</v>
+        <v>0.2163754455974398</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002912312317922706</v>
+        <v>0.002762239731031151</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970243</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32084,7 +32084,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138809</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.512347035317</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987485</v>
@@ -34472,10 +34472,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525799</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
@@ -35580,7 +35580,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35732,7 +35732,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35811,7 +35811,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861327</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165799</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564867</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302292</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>795.0547863356121</v>
+        <v>785.273685042633</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120764</v>
@@ -36531,7 +36531,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>461.7098777104068</v>
+        <v>358.9411069805484</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664097</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180363</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>827.137011779454</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>685.7637716667635</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>673.597162585916</v>
+        <v>685.7637716667626</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,19 +37467,19 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M37" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861318</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340067</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.97662345873277</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>211.4458663899861</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>325.1555790158646</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>353.0315862391503</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>350.2551530132066</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>307.7513370683063</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>240.3552779907769</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.79244538356016</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.670908060958</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.233896612727</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2941807.785631011</v>
+        <v>3032784.94878464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10906349.75204299</v>
+        <v>10825932.42511313</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1555926.763495862</v>
+        <v>1224417.771157405</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8050763.537664906</v>
+        <v>8131230.482012669</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1375,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>269.744773806899</v>
+        <v>139.3414439270838</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1528,25 +1530,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1616,13 +1618,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>199.8651984574939</v>
+        <v>289.0532354718726</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1777,13 +1779,13 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404366</v>
       </c>
       <c r="H16" t="n">
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1847,7 +1849,7 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.0262835275042</v>
       </c>
       <c r="W17" t="n">
-        <v>30.05161693821722</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2020,7 +2022,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2084,19 +2086,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>180.3615956913143</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>13.91332762480699</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2257,7 +2259,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2369,7 +2371,7 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U23" t="n">
         <v>204.0200353403093</v>
@@ -2494,7 +2496,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124582</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2572,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2614,7 @@
         <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2623,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824775</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633435</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797667</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433874</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704449</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403097</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,25 +2952,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797823</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572905</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3207,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>295.2775894524737</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>248.9668873827424</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>336.8807434231776</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>340.9264233349196</v>
       </c>
       <c r="H35" t="n">
-        <v>179.438447948434</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>257.7569561516011</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>279.2456663988792</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>299.7357983599352</v>
       </c>
       <c r="Y35" t="n">
-        <v>339.262802037461</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>109.8366778634035</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>97.25151878009399</v>
       </c>
       <c r="D37" t="n">
-        <v>101.6403363996198</v>
+        <v>78.62017069967851</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>76.43866032803533</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>75.4257457043974</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>96.03050594049438</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>74.75971259578694</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>26.35711809130425</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>18.93685035151348</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>119.7737230129081</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>149.5536469576354</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870203</v>
+        <v>216.216535887079</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>182.1423410052942</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>216.5276960180572</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>208.4123957341119</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>295.2775894524737</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>176.2815549670329</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>311.9350677537279</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>336.8807434231776</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>340.9264233349196</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>224.6124620687866</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>39.19245946964199</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>133.9226678210863</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>180.9998696403681</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>257.7569561516011</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>299.7357983599352</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.262802037461</v>
+        <v>316.2426363375197</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>109.8366778634035</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>97.25151878009399</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996198</v>
+        <v>78.62017069967851</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>76.43866032803533</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>75.4257457043974</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>96.03050594049438</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>74.75971259578694</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124553</v>
+        <v>26.35711809130424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>18.93685035151348</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>119.773723012908</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>149.5536469576354</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>216.2165358870792</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>182.1423410052942</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>216.5276960180572</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704446</v>
+        <v>155.7143530705033</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>148.5893510335609</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>255.7871767362528</v>
+        <v>359.7136759635393</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>342.2527260710663</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>331.6628759207417</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>358.9102043723205</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>344.7522102668985</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292589</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>86.16759608823457</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>180.8978044396789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>227.9750062589607</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>304.7320927701936</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>326.2208030174717</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>363.2177729561123</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>156.811814481996</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>23.14063094305168</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>123.4137969466279</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>122.40088232299</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.005642559087</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>73.33225470989683</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>65.91198697010607</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>166.7488596315006</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>196.5287835762279</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>263.1916725056716</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>229.1174776238867</v>
       </c>
       <c r="W43" t="n">
-        <v>181.4487096095775</v>
+        <v>263.5028326366497</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>195.5644876521535</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>359.7136759635393</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>342.2527260710663</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>331.6628759207417</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>358.9102043723205</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>387.9015599535122</v>
       </c>
       <c r="H44" t="n">
-        <v>100.906892688255</v>
+        <v>271.5875986873792</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.501982373783719</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>86.16759608823459</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>180.8978044396789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>227.9750062589607</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>326.2208030174717</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>346.7109349785277</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>156.811814481996</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>144.2266553986866</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>125.5953073182711</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>122.40088232299</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>121.7348492143795</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>73.33225470989686</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>65.91198697010608</v>
       </c>
       <c r="S46" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>58.59141203606189</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>263.1916725056716</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>229.1174776238867</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>263.5028326366497</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>202.6894896890959</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>195.5644876521535</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1312.511305367893</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>990.9984213755544</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D11" t="n">
-        <v>680.1823557168772</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E11" t="n">
-        <v>680.1823557168772</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>316.6460838753429</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="V11" t="n">
-        <v>2625.686359146727</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="W11" t="n">
-        <v>2320.367336824686</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X11" t="n">
-        <v>1994.35121151168</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y11" t="n">
-        <v>1651.661512483941</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5117,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228008</v>
@@ -5124,10 +5126,10 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5194,25 +5196,25 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P13" t="n">
         <v>2175.221948702825</v>
@@ -5239,10 +5241,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1404.8025029403</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C14" t="n">
-        <v>1083.289618947962</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D14" t="n">
-        <v>772.4735532892846</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>434.1349336391136</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5294,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2979.151531688843</v>
       </c>
       <c r="W14" t="n">
-        <v>2412.658534397094</v>
+        <v>2687.178566565739</v>
       </c>
       <c r="X14" t="n">
-        <v>2086.642409084087</v>
+        <v>2361.162441252732</v>
       </c>
       <c r="Y14" t="n">
-        <v>1743.952710056349</v>
+        <v>2018.472742224994</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5354,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052953</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254617</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611993</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268795</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770424</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5431,13 +5433,13 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L16" t="n">
         <v>771.6978860337115</v>
@@ -5452,7 +5454,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
         <v>2299.337630107746</v>
@@ -5470,16 +5472,16 @@
         <v>1696.750338179563</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X16" t="n">
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874617</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2018.472742224994</v>
+        <v>1707.656676566317</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.959858232656</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D17" t="n">
         <v>1386.143792573978</v>
@@ -5507,22 +5509,22 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5534,31 +5536,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3262.764786084339</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U17" t="n">
-        <v>3056.683942306249</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V17" t="n">
-        <v>3056.683942306249</v>
+        <v>2678.142031317413</v>
       </c>
       <c r="W17" t="n">
-        <v>3026.328773681787</v>
+        <v>2372.823008995372</v>
       </c>
       <c r="X17" t="n">
-        <v>2700.312648368781</v>
+        <v>2046.806883682365</v>
       </c>
       <c r="Y17" t="n">
-        <v>2357.622949341042</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
@@ -5589,19 +5591,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215812</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992583</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1785.73444130672</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C19" t="n">
-        <v>1664.247891326886</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D19" t="n">
-        <v>1561.580884862624</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E19" t="n">
-        <v>1461.117424228304</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>1361.677109678467</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
-        <v>1241.42390600126</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
-        <v>1142.656352167191</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>1092.780307933609</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>1184.408325632951</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K19" t="n">
-        <v>1434.900893834234</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.966077535137</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M19" t="n">
-        <v>2188.628508387093</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N19" t="n">
-        <v>2576.542270345364</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O19" t="n">
-        <v>2922.377254518184</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>3201.49014020425</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q19" t="n">
-        <v>3325.605821609171</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>3283.224997314772</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>3138.988746089672</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
-        <v>2964.671763607271</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
-        <v>2723.018529680988</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
-        <v>2515.783674423174</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>2273.816137334287</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X19" t="n">
-        <v>2093.276219384343</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>1919.933273188886</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>1301.367519464213</v>
       </c>
       <c r="C20" t="n">
-        <v>979.8546354718744</v>
+        <v>979.8546354718749</v>
       </c>
       <c r="D20" t="n">
-        <v>797.6712054806478</v>
+        <v>669.0385698131977</v>
       </c>
       <c r="E20" t="n">
-        <v>797.6712054806478</v>
+        <v>330.6999501630268</v>
       </c>
       <c r="F20" t="n">
-        <v>434.1349336391136</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T20" t="n">
         <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921006</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X20" t="n">
         <v>1983.207425608</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.517726580261</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="21">
@@ -5820,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E22" t="n">
         <v>434.8492327268785</v>
@@ -5905,16 +5907,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5981,10 +5983,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
@@ -6002,28 +6004,28 @@
         <v>2302.59600554503</v>
       </c>
       <c r="O23" t="n">
-        <v>3080.016953737237</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094415</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
@@ -6063,7 +6065,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643397</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302708</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973148</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6166,31 +6168,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,52 +6214,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>625.3777437664576</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1076.411957014866</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1609.943861686791</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2156.722678745573</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075028</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,7 +6268,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6348,7 +6350,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960313</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6402,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6412,22 +6414,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519656</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623799</v>
+        <v>2001.896141870841</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O29" t="n">
         <v>3355.268050164795</v>
@@ -6482,22 +6484,22 @@
         <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698016</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899673</v>
+        <v>652.614500289968</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257056</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913851</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641548</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643403</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308445</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481265</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572252</v>
@@ -6649,7 +6651,7 @@
         <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644069</v>
@@ -6658,13 +6660,13 @@
         <v>1504.150283386256</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297369</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347425</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519673</v>
+        <v>908.2998821519679</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6710,16 +6712,16 @@
         <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.163811692541</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O32" t="n">
-        <v>3071.136282571878</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3728.510094301078</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3976.79645605676</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6841,7 +6843,7 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
@@ -6856,10 +6858,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6877,16 +6879,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1949.589732305505</v>
+        <v>1842.874917862313</v>
       </c>
       <c r="C35" t="n">
-        <v>1628.076848313167</v>
+        <v>1544.614726496178</v>
       </c>
       <c r="D35" t="n">
-        <v>1317.26078265449</v>
+        <v>1293.133022069165</v>
       </c>
       <c r="E35" t="n">
-        <v>978.9221630043186</v>
+        <v>978.0470950451975</v>
       </c>
       <c r="F35" t="n">
-        <v>615.3858911627843</v>
+        <v>637.7635158298665</v>
       </c>
       <c r="G35" t="n">
-        <v>247.7630739558541</v>
+        <v>293.3933912491397</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3262.764786084339</v>
+        <v>3190.33039956767</v>
       </c>
       <c r="U35" t="n">
-        <v>3262.764786084339</v>
+        <v>3007.502248415783</v>
       </c>
       <c r="V35" t="n">
-        <v>3262.764786084339</v>
+        <v>2747.141686646489</v>
       </c>
       <c r="W35" t="n">
-        <v>2957.445763762299</v>
+        <v>2465.075356950651</v>
       </c>
       <c r="X35" t="n">
-        <v>2631.429638449292</v>
+        <v>2162.311924263848</v>
       </c>
       <c r="Y35" t="n">
-        <v>2288.739939421554</v>
+        <v>1842.874917862313</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052943</v>
+        <v>596.6974014218711</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254607</v>
+        <v>498.4635440682408</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611983</v>
+        <v>419.0492302301817</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268785</v>
+        <v>341.8384622220652</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770414</v>
+        <v>265.6508402984315</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998337</v>
+        <v>168.6503292474271</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657648</v>
+        <v>93.13546803956146</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315256</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>408.6327023328086</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>771.6978860337113</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813347</v>
+        <v>1908.166416420297</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588247</v>
+        <v>1787.1828578214</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1636.118567965202</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179563</v>
+        <v>1417.718026665123</v>
       </c>
       <c r="V37" t="n">
-        <v>1489.515482921749</v>
+        <v>1233.735864033512</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832862</v>
+        <v>1015.021019570828</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882918</v>
+        <v>857.7337942470876</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874608</v>
+        <v>707.6435406778342</v>
       </c>
     </row>
     <row r="38">
@@ -7148,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1430.000155131663</v>
+        <v>1769.455390169677</v>
       </c>
       <c r="C38" t="n">
-        <v>1108.487271139325</v>
+        <v>1471.195198803542</v>
       </c>
       <c r="D38" t="n">
-        <v>797.6712054806478</v>
+        <v>1293.133022069165</v>
       </c>
       <c r="E38" t="n">
-        <v>797.6712054806478</v>
+        <v>978.0470950451975</v>
       </c>
       <c r="F38" t="n">
-        <v>434.1349336391136</v>
+        <v>637.7635158298665</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>293.3933912491397</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7190,34 +7192,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084339</v>
+        <v>3286.017478710543</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416635</v>
+        <v>3150.742056669042</v>
       </c>
       <c r="U38" t="n">
-        <v>2898.155827638544</v>
+        <v>2967.913905517155</v>
       </c>
       <c r="V38" t="n">
-        <v>2614.542573243047</v>
+        <v>2707.553343747861</v>
       </c>
       <c r="W38" t="n">
-        <v>2309.223550921006</v>
+        <v>2707.553343747861</v>
       </c>
       <c r="X38" t="n">
-        <v>1983.207425608</v>
+        <v>2404.789911061057</v>
       </c>
       <c r="Y38" t="n">
-        <v>1640.517726580261</v>
+        <v>2085.352904659522</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052943</v>
+        <v>596.6974014218711</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254607</v>
+        <v>498.4635440682408</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611983</v>
+        <v>419.0492302301817</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268785</v>
+        <v>341.8384622220652</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770414</v>
+        <v>265.6508402984315</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>168.6503292474271</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657648</v>
+        <v>93.13546803956146</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315257</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328087</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337115</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885667</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843938</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016758</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702824</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107746</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813347</v>
+        <v>1908.166416420297</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588247</v>
+        <v>1787.1828578214</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105846</v>
+        <v>1636.118567965203</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>1417.718026665123</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921749</v>
+        <v>1233.735864033513</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>1015.021019570829</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>857.7337942470881</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874608</v>
+        <v>707.6435406778342</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1303.529887077737</v>
+        <v>1458.00506252413</v>
       </c>
       <c r="C41" t="n">
-        <v>934.5673701373256</v>
+        <v>1112.295238209922</v>
       </c>
       <c r="D41" t="n">
-        <v>934.5673701373256</v>
+        <v>777.2822322293744</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373256</v>
+        <v>414.7466722573334</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477181</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3238.56784576247</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520489</v>
+        <v>3055.842790772895</v>
       </c>
       <c r="U41" t="n">
-        <v>3009.337405520489</v>
+        <v>2825.565006672935</v>
       </c>
       <c r="V41" t="n">
-        <v>2678.274518176918</v>
+        <v>2517.754811955568</v>
       </c>
       <c r="W41" t="n">
-        <v>2325.505862906803</v>
+        <v>2188.238849311657</v>
       </c>
       <c r="X41" t="n">
-        <v>1952.040104645724</v>
+        <v>2188.238849311657</v>
       </c>
       <c r="Y41" t="n">
-        <v>1561.900772669912</v>
+        <v>1821.352209962048</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>556.7072755045606</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>556.7072755045606</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>533.3329008146094</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>408.6724998584196</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>285.0352449867125</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>140.5851009876348</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>140.5851009876348</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>134.4247129220608</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>361.201859913879</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>700.5516224053171</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>1067.498632047808</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1431.696972796614</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1753.81653575997</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>2009.214000236571</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>2109.614260432028</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>2043.036495815759</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1874.603304268788</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1676.089381464518</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1410.239207216365</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1178.807411636681</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>912.6429342259238</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>912.6429342259238</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>715.1030477085969</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2107.513093752762</v>
+        <v>1782.488830956228</v>
       </c>
       <c r="C44" t="n">
-        <v>1738.55057681235</v>
+        <v>1436.779006642019</v>
       </c>
       <c r="D44" t="n">
-        <v>1380.284878205599</v>
+        <v>1101.766000661472</v>
       </c>
       <c r="E44" t="n">
-        <v>994.4966256073551</v>
+        <v>739.230440689431</v>
       </c>
       <c r="F44" t="n">
-        <v>583.5107208177476</v>
+        <v>739.230440689431</v>
       </c>
       <c r="G44" t="n">
-        <v>168.4382706627441</v>
+        <v>347.4106831606308</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>73.0797753956013</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3238.567845762469</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3055.842790772894</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.315153136266</v>
+        <v>2825.565006672934</v>
       </c>
       <c r="V44" t="n">
-        <v>2884.252265792695</v>
+        <v>2825.565006672934</v>
       </c>
       <c r="W44" t="n">
-        <v>2884.252265792695</v>
+        <v>2496.049044029023</v>
       </c>
       <c r="X44" t="n">
-        <v>2884.252265792695</v>
+        <v>2145.835978394146</v>
       </c>
       <c r="Y44" t="n">
-        <v>2494.112933816883</v>
+        <v>2145.835978394146</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.4482993600903</v>
+        <v>659.7342871031168</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>514.0507968014132</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>387.1868500152808</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>387.1868500152808</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>263.5495951435737</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>263.5495951435737</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>140.5851009876348</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>134.4247129220608</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>361.2018599138789</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>700.5516224053169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>1067.498632047808</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1431.696972796614</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1753.81653575997</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>2009.214000236571</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>2109.614260432028</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>2043.036495815759</v>
       </c>
       <c r="S46" t="n">
-        <v>1920.850034779555</v>
+        <v>2043.036495815759</v>
       </c>
       <c r="T46" t="n">
-        <v>1699.083419349081</v>
+        <v>1983.853251334888</v>
       </c>
       <c r="U46" t="n">
-        <v>1409.980552474725</v>
+        <v>1718.003077086735</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.296064268838</v>
+        <v>1486.571281507051</v>
       </c>
       <c r="W46" t="n">
-        <v>865.8788942318776</v>
+        <v>1220.406804096294</v>
       </c>
       <c r="X46" t="n">
-        <v>637.8893433338602</v>
+        <v>1015.66994582448</v>
       </c>
       <c r="Y46" t="n">
-        <v>417.0967641903301</v>
+        <v>818.1300593071533</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>218.2111409464629</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>233.4357089658653</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>227.7528737187178</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>226.7777408199137</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>227.6097508526263</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>229.1091522321465</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>136.5653954824675</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>136.8385818314783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>140.1317786452013</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>129.2864630672354</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>140.7160931202018</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>132.4654202195568</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>133.8997196622861</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>137.8872852940284</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6717389884799</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>137.5201250048898</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>205.7291124296671</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L5" t="n">
-        <v>217.9506488543178</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>210.5227606929633</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
-        <v>209.2688265518739</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O5" t="n">
-        <v>211.0765796036711</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P5" t="n">
-        <v>214.9984730795989</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.1142394483069</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>121.1307308037506</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>128.087444963636</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>125.4389311148325</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>126.8289239456632</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>115.6315213876802</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>128.2244891928028</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
-        <v>122.4398067885634</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>132.2711990340596</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>127.3557315210244</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M7" t="n">
-        <v>130.9875673339101</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N7" t="n">
-        <v>119.9360808998253</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O7" t="n">
-        <v>131.2986545621641</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P7" t="n">
-        <v>131.6031978188745</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9387195582597</v>
+        <v>118.4532239242056</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0299464227919</v>
+        <v>126.2796483004594</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>119.3865631998466</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>100.8512241362365</v>
       </c>
       <c r="N8" t="n">
-        <v>61.00144891149961</v>
+        <v>97.82268987559783</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>105.8411529806349</v>
       </c>
       <c r="P8" t="n">
-        <v>95.50771753390021</v>
+        <v>125.1824711644806</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3816583481039</v>
+        <v>142.6661624892316</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>79.12633608862856</v>
+        <v>89.55785490261908</v>
       </c>
       <c r="K9" t="n">
-        <v>56.29524403393702</v>
+        <v>74.12437119491788</v>
       </c>
       <c r="L9" t="n">
-        <v>28.90545725697471</v>
+        <v>52.87891897586429</v>
       </c>
       <c r="M9" t="n">
-        <v>14.17891314335149</v>
+        <v>42.15481221415749</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>28.71633787432447</v>
       </c>
       <c r="O9" t="n">
-        <v>22.44423757443683</v>
+        <v>48.71407653746284</v>
       </c>
       <c r="P9" t="n">
-        <v>37.54182911310821</v>
+        <v>58.62569087085014</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>89.61315250759704</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.82491575659759</v>
+        <v>90.57937477674801</v>
       </c>
       <c r="L10" t="n">
-        <v>71.94053294496764</v>
+        <v>85.70253786011162</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>87.0701148271766</v>
       </c>
       <c r="N10" t="n">
-        <v>62.89780050171086</v>
+        <v>77.06288725336907</v>
       </c>
       <c r="O10" t="n">
-        <v>78.61457070130248</v>
+        <v>91.69832100218657</v>
       </c>
       <c r="P10" t="n">
-        <v>86.52286261917671</v>
+        <v>97.7182712892926</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9650,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>277.2206841544139</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642836</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>21.7498204251479</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9884,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>343.5485285966295</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,16 +10117,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665426</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>306.6874953089235</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10358,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>287.0017854473908</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>21.74982042514685</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.28796821707176</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.1898419549388</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>14.56525766297251</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>11.0323480446433</v>
+        <v>141.4356779244586</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>102.4006336413266</v>
+        <v>13.21259662694786</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0.7508383240381136</v>
       </c>
       <c r="W17" t="n">
-        <v>272.2142151606033</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>127.3463093107761</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>345.9875814983119</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>312.7385393449467</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>35.72085191940667</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>68.19417982029393</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>39.19245946964199</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>127.3463093107761</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>108.4061843351163</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25451,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>279.2456663988792</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>126.9466649272277</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>39.10366977487166</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>387.9015599535122</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873204</v>
+        <v>271.5875986873792</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>18.55676407298469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589019</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>346.7109349785277</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>144.2266553986866</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.4546763752194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>121.7348492143795</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>202.6894896890959</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>383.8558800417701</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>193.7008716990654</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>12.054781699201</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>304.7320927701936</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>363.2177729561123</v>
       </c>
     </row>
     <row r="45">
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>123.4137969466279</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>143.005642559087</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.3889571555937</v>
+        <v>166.7488596315006</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>137.9373715401661</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>781712.1549882774</v>
+        <v>782390.8123346402</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>777016.3284327619</v>
+        <v>778050.9331567017</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732403.1860906134</v>
+        <v>743540.3558812961</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659610.4618465636</v>
+        <v>659610.4618465638</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659610.4618465636</v>
+        <v>659610.4618465637</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659610.4618465635</v>
+        <v>681416.0836041761</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659610.4618465636</v>
+        <v>681416.0836041761</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>589454.1716907624</v>
+        <v>624013.2488545838</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>589454.1716907624</v>
+        <v>624013.2488545835</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737349.7629178474</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737356.7926832668</v>
+        <v>737355.3326995481</v>
       </c>
       <c r="D2" t="n">
-        <v>737416.3214963146</v>
+        <v>737401.5379019435</v>
       </c>
       <c r="E2" t="n">
-        <v>688077.9089008586</v>
+        <v>688077.9089008587</v>
       </c>
       <c r="F2" t="n">
-        <v>688077.9089008588</v>
+        <v>688077.908900859</v>
       </c>
       <c r="G2" t="n">
-        <v>688077.9089008581</v>
+        <v>688077.9089008592</v>
       </c>
       <c r="H2" t="n">
-        <v>688077.9089008587</v>
+        <v>688077.9089008585</v>
       </c>
       <c r="I2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778555</v>
       </c>
       <c r="J2" t="n">
-        <v>738937.5928778559</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="K2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="M2" t="n">
-        <v>688077.9089008592</v>
+        <v>711166.2142912712</v>
       </c>
       <c r="N2" t="n">
-        <v>688077.9089008587</v>
+        <v>711166.2142912712</v>
       </c>
       <c r="O2" t="n">
-        <v>613794.7781476574</v>
+        <v>650386.7422034678</v>
       </c>
       <c r="P2" t="n">
-        <v>613794.7781476574</v>
+        <v>650386.7422034678</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3540.182044145884</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>22226.80017451141</v>
+        <v>20956.03230135573</v>
       </c>
       <c r="D3" t="n">
-        <v>177018.4336720202</v>
+        <v>137398.5493195218</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621995</v>
+        <v>1013965.399123085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902289</v>
+        <v>48646.25967902283</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.109294874</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051144</v>
+        <v>180016.5656650675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>429908.1492159134</v>
+        <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>423408.0383856181</v>
+        <v>424732.6838236327</v>
       </c>
       <c r="D4" t="n">
-        <v>370434.2549872374</v>
+        <v>383565.2806638863</v>
       </c>
       <c r="E4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858626</v>
       </c>
       <c r="F4" t="n">
         <v>57605.61344858621</v>
@@ -26433,31 +26435,31 @@
         <v>57605.61344858621</v>
       </c>
       <c r="H4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858621</v>
       </c>
       <c r="I4" t="n">
         <v>80755.36360646592</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646591</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="L4" t="n">
         <v>80755.36360646594</v>
       </c>
       <c r="M4" t="n">
-        <v>57605.61344858622</v>
+        <v>72131.91356884243</v>
       </c>
       <c r="N4" t="n">
-        <v>57605.61344858622</v>
+        <v>72131.91356884243</v>
       </c>
       <c r="O4" t="n">
-        <v>10380.34706710383</v>
+        <v>33643.27707532666</v>
       </c>
       <c r="P4" t="n">
-        <v>10380.34706710378</v>
+        <v>33643.27707532667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33707.69021107268</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>34239.8043990542</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="D5" t="n">
-        <v>38745.80483114667</v>
+        <v>37626.76886831443</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178176</v>
@@ -26500,16 +26502,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178176</v>
+        <v>80190.77563201013</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178176</v>
+        <v>80190.77563201013</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>76241.62287162166</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>76241.62287162164</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>270193.7414467154</v>
+        <v>272822.5954026588</v>
       </c>
       <c r="C6" t="n">
-        <v>257482.1497240831</v>
+        <v>257537.3248319877</v>
       </c>
       <c r="D6" t="n">
-        <v>151217.8280059104</v>
+        <v>178810.9390502211</v>
       </c>
       <c r="E6" t="n">
-        <v>-420508.3745317089</v>
+        <v>-461748.5969925948</v>
       </c>
       <c r="F6" t="n">
         <v>552216.802130491</v>
       </c>
       <c r="G6" t="n">
-        <v>552216.8021304902</v>
+        <v>552216.802130491</v>
       </c>
       <c r="H6" t="n">
-        <v>552216.8021304908</v>
+        <v>552216.8021304909</v>
       </c>
       <c r="I6" t="n">
-        <v>520158.0279175605</v>
+        <v>520158.0279175607</v>
       </c>
       <c r="J6" t="n">
-        <v>531224.1783017099</v>
+        <v>531224.1783017092</v>
       </c>
       <c r="K6" t="n">
-        <v>568804.2875965834</v>
+        <v>568804.2875965836</v>
       </c>
       <c r="L6" t="n">
-        <v>568804.2875965832</v>
+        <v>568804.2875965831</v>
       </c>
       <c r="M6" t="n">
-        <v>390616.3690253769</v>
+        <v>378826.9594253511</v>
       </c>
       <c r="N6" t="n">
-        <v>552216.8021304908</v>
+        <v>558843.5250904185</v>
       </c>
       <c r="O6" t="n">
-        <v>529108.0905191603</v>
+        <v>540501.8422565195</v>
       </c>
       <c r="P6" t="n">
-        <v>529108.0905191603</v>
+        <v>540501.8422565195</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J2" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
     </row>
     <row r="3">
@@ -26735,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>28.08277059881667</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>183.4481132254327</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26764,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>23.02016569994128</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>24.40890770557435</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>206.6972675271775</v>
+        <v>160.4347305386434</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673043</v>
+        <v>906.3285873678658</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.548626562703943e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063218</v>
+        <v>182.9350058063216</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959713</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27394,13 +27396,13 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,19 +27423,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,22 +27578,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.3186104599073</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>206.1234834859401</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>2.36741980240622</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>142.7774422079721</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>206.4474620082733</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6016492493723</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3366212630208</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2831127132434</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.6520644170758</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.31691823631404</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>96.40745961871059</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>170.5611849388757</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9212563723658</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9374081040033</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9403382967232</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>161.7769274312815</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>153.9275600888831</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>89.7788570519679</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>16.38592119878651</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.92154489127307</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>175.0163850922228</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>223.1340624429078</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7292139826841</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3162671167598</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.8087073802583</v>
+        <v>331.9220865798075</v>
       </c>
       <c r="I8" t="n">
-        <v>174.0885230584365</v>
+        <v>182.0441975699094</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.58066941881005</v>
+        <v>103.5433991777443</v>
       </c>
       <c r="S8" t="n">
-        <v>187.5123304152058</v>
+        <v>192.2147474550914</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9641928127885</v>
+        <v>219.8675315112898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2866545196635</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8385185906377</v>
+        <v>136.9489306555182</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3582211803319</v>
+        <v>108.4245692806247</v>
       </c>
       <c r="I9" t="n">
-        <v>72.00962059397116</v>
+        <v>75.81108861726746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.80362453272261</v>
+        <v>75.65885782415987</v>
       </c>
       <c r="S9" t="n">
-        <v>162.3030441088983</v>
+        <v>164.3538997877085</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1292300623896</v>
+        <v>198.5742681660087</v>
       </c>
       <c r="U9" t="n">
-        <v>225.908158490674</v>
+        <v>225.9154224423108</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5676055192152</v>
+        <v>167.6601712854293</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4629941912556</v>
+        <v>159.2859880035957</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7184689252781</v>
+        <v>145.5021739674266</v>
       </c>
       <c r="J10" t="n">
-        <v>63.42664968215054</v>
+        <v>69.97104935348933</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.71025749466926</v>
+        <v>58.46137815465404</v>
       </c>
       <c r="R10" t="n">
-        <v>158.2569640235438</v>
+        <v>162.4190574753172</v>
       </c>
       <c r="S10" t="n">
-        <v>216.6383466748816</v>
+        <v>218.2515155279042</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1366284787861</v>
+        <v>226.5321367526101</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2959362379867</v>
+        <v>286.3009852797802</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292592</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859176</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859205</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859244</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>69.99530231853385</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>23.02016569994127</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.48846056906043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1128955601962478</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H5" t="n">
-        <v>1.156191655859823</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I5" t="n">
-        <v>4.352406084465849</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>9.581869552206298</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K5" t="n">
-        <v>14.36073861531347</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>17.81576611566939</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>19.82347253430942</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>20.14423704471701</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>19.02163181801557</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>16.2345226756707</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.19145042614257</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>7.091675733177559</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S5" t="n">
-        <v>2.572607577972</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4942003147590751</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009031644815699824</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06040444996726604</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5833798194207011</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>2.079714615101046</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>5.706895862916132</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K6" t="n">
-        <v>9.753994010722957</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>13.11544866504169</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>15.30510997635508</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>15.71019069565311</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>14.37175525164158</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>11.5346006257668</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.710575051961891</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>3.750374533932537</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>1.121986164962156</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2434723224557784</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003973976971530662</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05064106173557104</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4502450761580774</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>1.522914838375173</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>3.580323064704872</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>5.883570627096343</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>7.528944760213899</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>7.938216613695012</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>7.74946356540789</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O7" t="n">
-        <v>7.157883889678716</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>6.124806230273061</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.240498360421317</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>2.277006284946675</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8825355940644514</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2163754455974398</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002762239731031151</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.7374798521625431</v>
       </c>
       <c r="H8" t="n">
-        <v>9.666094735508892</v>
+        <v>7.552715535959647</v>
       </c>
       <c r="I8" t="n">
-        <v>36.38736651196942</v>
+        <v>28.43169200049647</v>
       </c>
       <c r="J8" t="n">
-        <v>80.10718496842655</v>
+        <v>62.5926806024807</v>
       </c>
       <c r="K8" t="n">
-        <v>120.0599046221887</v>
+        <v>93.81020274452116</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>116.3798517701406</v>
       </c>
       <c r="M8" t="n">
-        <v>165.7299311340341</v>
+        <v>129.4950090910363</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4116146850913</v>
+        <v>131.5903737209931</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>124.2570584410518</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7252782213693</v>
+        <v>106.050524590789</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.9240315263455</v>
+        <v>79.63952738521787</v>
       </c>
       <c r="R8" t="n">
-        <v>59.28844852233964</v>
+        <v>46.32571876340539</v>
       </c>
       <c r="S8" t="n">
-        <v>21.50773917103957</v>
+        <v>16.80532213115397</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>3.228318052841534</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.05899838817300344</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.3945865076924402</v>
       </c>
       <c r="H9" t="n">
-        <v>4.877223056164522</v>
+        <v>3.810874955871726</v>
       </c>
       <c r="I9" t="n">
-        <v>17.38701225744391</v>
+        <v>13.58554423414762</v>
       </c>
       <c r="J9" t="n">
-        <v>47.71129057803813</v>
+        <v>37.27977176404762</v>
       </c>
       <c r="K9" t="n">
-        <v>81.54619494042197</v>
+        <v>63.71706777944111</v>
       </c>
       <c r="L9" t="n">
-        <v>109.6489225228995</v>
+        <v>85.67546080400989</v>
       </c>
       <c r="M9" t="n">
-        <v>127.9551207786668</v>
+        <v>99.97922170786083</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>102.6253742090088</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1520068700076</v>
+        <v>93.88216790698159</v>
       </c>
       <c r="P9" t="n">
-        <v>96.43257830122204</v>
+        <v>75.34871654348011</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>50.36862157842448</v>
       </c>
       <c r="R9" t="n">
-        <v>31.35420961992052</v>
+        <v>24.49897632848327</v>
       </c>
       <c r="S9" t="n">
-        <v>9.380126994939479</v>
+        <v>7.329271316129312</v>
       </c>
       <c r="T9" t="n">
-        <v>2.035498632431968</v>
+        <v>1.590460528812949</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.02595963866397634</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.3308080730294689</v>
       </c>
       <c r="H10" t="n">
-        <v>3.764178316183975</v>
+        <v>2.941184503843825</v>
       </c>
       <c r="I10" t="n">
-        <v>12.73200600198015</v>
+        <v>9.948300959831666</v>
       </c>
       <c r="J10" t="n">
-        <v>29.93253043452224</v>
+        <v>23.38813076318344</v>
       </c>
       <c r="K10" t="n">
-        <v>49.18834241393778</v>
+        <v>38.43388339378737</v>
       </c>
       <c r="L10" t="n">
-        <v>62.94414333627064</v>
+        <v>49.18213842112667</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>51.85566912042846</v>
       </c>
       <c r="N10" t="n">
-        <v>64.78774396352233</v>
+        <v>50.62265721186412</v>
       </c>
       <c r="O10" t="n">
-        <v>59.84196775054031</v>
+        <v>46.75821744965621</v>
       </c>
       <c r="P10" t="n">
-        <v>51.20514142997091</v>
+        <v>40.00973275985501</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>27.70066509704034</v>
       </c>
       <c r="R10" t="n">
-        <v>19.03642735362569</v>
+        <v>14.87433390185229</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>5.765082509068105</v>
       </c>
       <c r="T10" t="n">
-        <v>1.808960949495364</v>
+        <v>1.413452675671367</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.01804407671069832</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31853,7 +31855,7 @@
         <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970243</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P12" t="n">
         <v>447.6103584002928</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233467</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.956561913878</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32561,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33032,7 +33034,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33752,7 +33754,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -34226,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35501,7 +35503,7 @@
         <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525799</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859626</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629122</v>
@@ -35574,7 +35576,7 @@
         <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861327</v>
@@ -35583,10 +35585,10 @@
         <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013284</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120762</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340039</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165799</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887903</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36209,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36288,7 +36290,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36370,13 +36372,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>785.273685042633</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>418.5312714465555</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,13 +36521,13 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36595,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>358.9411069805484</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36604,13 +36606,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>895.850364009541</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36680,7 +36682,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36750,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36770,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
-        <v>827.137011779454</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>814.7404961971429</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,19 +37080,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>685.7637716667626</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>81.36301896737163</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37400,7 +37402,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887905</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222479</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>68.59858231300748</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>229.0678252442608</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>342.7775378701394</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>370.6535450934251</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>367.8771118674813</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>325.3732959225811</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>257.9772368450517</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>101.4144042378349</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>68.59858231300746</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>229.0678252442608</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>342.7775378701393</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>370.6535450934251</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>367.8771118674813</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>325.373295922581</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>257.9772368450517</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>101.4144042378349</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3032784.94878464</v>
+        <v>3025926.361976743</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10825932.42511313</v>
+        <v>10738388.06169758</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1224417.771157405</v>
+        <v>881596.8856757657</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8131230.482012669</v>
+        <v>8215012.392201759</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>228.5541488319151</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>139.3414439270838</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1548,7 +1548,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1660,16 +1660,16 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>289.0532354718726</v>
+        <v>77.12881875749919</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1767,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404366</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>77.18791253260726</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.0262835275042</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
@@ -1912,7 +1912,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C19" t="n">
         <v>120.2716844800353</v>
@@ -2010,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145473</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U19" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X19" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F20" t="n">
-        <v>13.91332762480699</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481088</v>
       </c>
       <c r="X20" t="n">
         <v>322.7559640598765</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2247,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145478</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X22" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210278</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C25" t="n">
         <v>120.2716844800353</v>
@@ -2484,19 +2484,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957281</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X25" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2572,7 +2572,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2623,7 +2623,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128483</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704449</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2809,7 +2809,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958332</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403097</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2860,7 +2860,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797823</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124454</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="32">
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3243,7 +3243,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2775894524737</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D35" t="n">
-        <v>248.9668873827424</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E35" t="n">
-        <v>311.9350677537279</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F35" t="n">
-        <v>336.8807434231776</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G35" t="n">
-        <v>340.9264233349196</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H35" t="n">
-        <v>224.6124620687866</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>15.23748855099075</v>
       </c>
       <c r="T35" t="n">
-        <v>133.9226678210863</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U35" t="n">
-        <v>180.9998696403681</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V35" t="n">
-        <v>257.7569561516011</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W35" t="n">
-        <v>279.2456663988792</v>
+        <v>203.0084376073497</v>
       </c>
       <c r="X35" t="n">
-        <v>299.7357983599352</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y35" t="n">
-        <v>316.2426363375197</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.8366778634035</v>
+        <v>85.88170694475221</v>
       </c>
       <c r="C37" t="n">
-        <v>97.25151878009399</v>
+        <v>73.29654786144275</v>
       </c>
       <c r="D37" t="n">
-        <v>78.62017069967851</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E37" t="n">
-        <v>76.43866032803533</v>
+        <v>52.48368940938408</v>
       </c>
       <c r="F37" t="n">
-        <v>75.4257457043974</v>
+        <v>51.47077478574616</v>
       </c>
       <c r="G37" t="n">
-        <v>96.03050594049438</v>
+        <v>72.07553502184314</v>
       </c>
       <c r="H37" t="n">
-        <v>74.75971259578694</v>
+        <v>50.80474167713569</v>
       </c>
       <c r="I37" t="n">
-        <v>26.35711809130425</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.93685035151348</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>119.7737230129081</v>
+        <v>95.81875209425681</v>
       </c>
       <c r="T37" t="n">
-        <v>149.5536469576354</v>
+        <v>128.058997221526</v>
       </c>
       <c r="U37" t="n">
-        <v>216.216535887079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>182.1423410052942</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>216.5276960180572</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>155.7143530705033</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.5893510335609</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.7385393449467</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C38" t="n">
-        <v>295.2775894524737</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D38" t="n">
-        <v>176.2815549670329</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E38" t="n">
-        <v>311.9350677537279</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F38" t="n">
-        <v>336.8807434231776</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G38" t="n">
-        <v>340.9264233349196</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H38" t="n">
-        <v>224.6124620687866</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.19245946964199</v>
+        <v>15.23748855099075</v>
       </c>
       <c r="T38" t="n">
-        <v>133.9226678210863</v>
+        <v>57.68543902955664</v>
       </c>
       <c r="U38" t="n">
-        <v>180.9998696403681</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V38" t="n">
-        <v>257.7569561516011</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X38" t="n">
-        <v>299.7357983599352</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y38" t="n">
-        <v>316.2426363375197</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.8366778634035</v>
+        <v>85.88170694475221</v>
       </c>
       <c r="C40" t="n">
-        <v>97.25151878009399</v>
+        <v>73.29654786144275</v>
       </c>
       <c r="D40" t="n">
-        <v>78.62017069967851</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E40" t="n">
-        <v>76.43866032803533</v>
+        <v>52.48368940938408</v>
       </c>
       <c r="F40" t="n">
-        <v>75.4257457043974</v>
+        <v>53.93109596828829</v>
       </c>
       <c r="G40" t="n">
-        <v>96.03050594049438</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>74.75971259578694</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>26.35711809130424</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.93685035151348</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>119.773723012908</v>
+        <v>95.81875209425681</v>
       </c>
       <c r="T40" t="n">
-        <v>149.5536469576354</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>216.2165358870792</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V40" t="n">
-        <v>182.1423410052942</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W40" t="n">
-        <v>216.5276960180572</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X40" t="n">
-        <v>155.7143530705033</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.5893510335609</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="41">
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>359.7136759635393</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>342.2527260710663</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>331.6628759207417</v>
+        <v>180.3615956913147</v>
       </c>
       <c r="E41" t="n">
-        <v>358.9102043723205</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>344.7522102668985</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>86.16759608823457</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
-        <v>180.8978044396789</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>227.9750062589607</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>304.7320927701936</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>326.2208030174717</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>363.2177729561123</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.811814481996</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>23.14063094305168</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>123.4137969466279</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>122.40088232299</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>143.005642559087</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>73.33225470989683</v>
+        <v>49.37728379124606</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.91198697010607</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>166.7488596315006</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>196.5287835762279</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>263.1916725056716</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>229.1174776238867</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>263.5028326366497</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>195.5644876521535</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>359.7136759635393</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>342.2527260710663</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>331.6628759207417</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>358.9102043723205</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>387.9015599535122</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>271.5875986873792</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6.501982373783719</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>86.16759608823459</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
-        <v>180.8978044396789</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>227.9750062589607</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>120.741411185918</v>
       </c>
       <c r="W44" t="n">
-        <v>326.2208030174717</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>346.7109349785277</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.811814481996</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>144.2266553986866</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5953073182711</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>122.40088232299</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>121.7348492143795</v>
+        <v>97.77987829572795</v>
       </c>
       <c r="I46" t="n">
-        <v>73.33225470989686</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.91198697010608</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>58.59141203606189</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>263.1916725056716</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V46" t="n">
-        <v>229.1174776238867</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>263.5028326366497</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>202.6894896890959</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>195.5644876521535</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1910.996899172717</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1589.484015180378</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1278.667949521701</v>
       </c>
       <c r="E11" t="n">
         <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609172</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>3167.077706941467</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>3026.328773681787</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W11" t="n">
-        <v>3026.328773681787</v>
+        <v>2592.836805316504</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.31264836878</v>
+        <v>2592.836805316504</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>2250.147106288765</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O13" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5238,13 +5238,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="14">
@@ -5278,22 +5278,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5308,22 +5308,22 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T14" t="n">
-        <v>3262.76478608434</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3262.76478608434</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="V14" t="n">
-        <v>2979.151531688843</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="W14" t="n">
-        <v>2687.178566565739</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.162441252732</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y14" t="n">
-        <v>2018.472742224994</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5360,10 +5360,10 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052953</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254617</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611993</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268795</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770424</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5454,34 +5454,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.51548292175</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832863</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874617</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1707.656676566317</v>
+        <v>1728.817513434839</v>
       </c>
       <c r="C17" t="n">
-        <v>1386.143792573978</v>
+        <v>1407.304629442501</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573978</v>
+        <v>1096.488563783823</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>758.1499441336523</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>394.613672292118</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5536,7 +5536,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3167.077706941467</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2960.996863163376</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2678.142031317413</v>
+        <v>3041.992567213673</v>
       </c>
       <c r="W17" t="n">
-        <v>2372.823008995372</v>
+        <v>2736.673544891632</v>
       </c>
       <c r="X17" t="n">
-        <v>2046.806883682365</v>
+        <v>2410.657419578626</v>
       </c>
       <c r="Y17" t="n">
-        <v>2046.806883682365</v>
+        <v>2067.967720550887</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
@@ -5591,19 +5591,19 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215812</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992583</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254607</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998337</v>
@@ -5670,16 +5670,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5691,7 +5691,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107746</v>
@@ -5718,7 +5718,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1301.367519464213</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C20" t="n">
-        <v>979.8546354718749</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D20" t="n">
-        <v>669.0385698131977</v>
+        <v>1386.143792573979</v>
       </c>
       <c r="E20" t="n">
-        <v>330.6999501630268</v>
+        <v>1047.805172923808</v>
       </c>
       <c r="F20" t="n">
-        <v>316.6460838753429</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416635</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638545</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243048</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921007</v>
+        <v>3026.328773681788</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.207425608</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.517726580262</v>
+        <v>2357.622949341043</v>
       </c>
     </row>
     <row r="21">
@@ -5822,16 +5822,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998337</v>
@@ -5907,28 +5907,28 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q22" t="n">
         <v>2299.337630107746</v>
@@ -5955,7 +5955,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874611</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
         <v>1400.778593038484</v>
@@ -5983,10 +5983,10 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
@@ -6001,37 +6001,37 @@
         <v>1755.817188486248</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2735.569460712894</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424367</v>
+        <v>3238.541931592231</v>
       </c>
       <c r="P23" t="n">
-        <v>3518.923563871313</v>
+        <v>3633.31629794941</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3933.269522603404</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6065,7 +6065,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668919</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
         <v>1564.908879308444</v>
@@ -6168,31 +6168,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519669</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6214,61 +6214,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557148</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L26" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N26" t="n">
-        <v>2475.30339983534</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3071.136282571879</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6302,16 +6302,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6320,10 +6320,10 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302706</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960313</v>
@@ -6411,25 +6411,25 @@
         <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570353</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6451,61 +6451,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557147</v>
+        <v>331.9210317052858</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455613</v>
+        <v>665.7404053951324</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198916</v>
+        <v>1116.774618643541</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.896141870841</v>
+        <v>2095.32492147337</v>
       </c>
       <c r="N29" t="n">
-        <v>2548.674958929623</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6539,7 +6539,7 @@
         <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873063</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698016</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C31" t="n">
-        <v>652.614500289968</v>
+        <v>652.6145002899658</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257056</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913834</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415463</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643385</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302695</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347425</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519679</v>
+        <v>908.299882151966</v>
       </c>
     </row>
     <row r="32">
@@ -6688,55 +6688,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>3015.155006854131</v>
+        <v>3336.058965299585</v>
       </c>
       <c r="P32" t="n">
-        <v>3728.510094301078</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3976.79645605676</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6776,7 +6776,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6843,7 +6843,7 @@
         <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
@@ -6855,16 +6855,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1842.874917862313</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C35" t="n">
-        <v>1544.614726496178</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D35" t="n">
-        <v>1293.133022069165</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E35" t="n">
-        <v>978.0470950451975</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F35" t="n">
-        <v>637.7635158298665</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G35" t="n">
-        <v>293.3933912491397</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6943,7 +6943,7 @@
         <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T35" t="n">
-        <v>3190.33039956767</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U35" t="n">
-        <v>3007.502248415783</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V35" t="n">
-        <v>2747.141686646489</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W35" t="n">
-        <v>2465.075356950651</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X35" t="n">
-        <v>2162.311924263848</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y35" t="n">
-        <v>1842.874917862313</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="36">
@@ -7022,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>596.6974014218711</v>
+        <v>522.2180850649281</v>
       </c>
       <c r="C37" t="n">
-        <v>498.4635440682408</v>
+        <v>448.1811680331678</v>
       </c>
       <c r="D37" t="n">
-        <v>419.0492302301817</v>
+        <v>392.9637945169786</v>
       </c>
       <c r="E37" t="n">
-        <v>341.8384622220652</v>
+        <v>339.949966830732</v>
       </c>
       <c r="F37" t="n">
-        <v>265.6508402984315</v>
+        <v>287.9592852289682</v>
       </c>
       <c r="G37" t="n">
-        <v>168.6503292474271</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
-        <v>93.13546803956146</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7110,37 +7110,37 @@
         <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1908.166416420297</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1787.1828578214</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T37" t="n">
-        <v>1636.118567965202</v>
+        <v>1701.15540736548</v>
       </c>
       <c r="U37" t="n">
-        <v>1417.718026665123</v>
+        <v>1412.052540491123</v>
       </c>
       <c r="V37" t="n">
-        <v>1233.735864033512</v>
+        <v>1157.368052285236</v>
       </c>
       <c r="W37" t="n">
-        <v>1015.021019570828</v>
+        <v>867.9508822482755</v>
       </c>
       <c r="X37" t="n">
-        <v>857.7337942470876</v>
+        <v>734.8605972464047</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.6435406778342</v>
+        <v>608.9672839990212</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1769.455390169677</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C38" t="n">
-        <v>1471.195198803542</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D38" t="n">
-        <v>1293.133022069165</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E38" t="n">
-        <v>978.0470950451975</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F38" t="n">
-        <v>637.7635158298665</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G38" t="n">
-        <v>293.3933912491397</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3286.017478710543</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T38" t="n">
-        <v>3150.742056669042</v>
+        <v>3251.946298800538</v>
       </c>
       <c r="U38" t="n">
-        <v>2967.913905517155</v>
+        <v>3093.31508797052</v>
       </c>
       <c r="V38" t="n">
-        <v>2707.553343747861</v>
+        <v>2857.151466523096</v>
       </c>
       <c r="W38" t="n">
-        <v>2707.553343747861</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X38" t="n">
-        <v>2404.789911061057</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y38" t="n">
-        <v>2085.352904659522</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>596.6974014218711</v>
+        <v>714.5017897688799</v>
       </c>
       <c r="C40" t="n">
-        <v>498.4635440682408</v>
+        <v>640.4648727371195</v>
       </c>
       <c r="D40" t="n">
-        <v>419.0492302301817</v>
+        <v>585.2474992209304</v>
       </c>
       <c r="E40" t="n">
-        <v>341.8384622220652</v>
+        <v>532.2336715346838</v>
       </c>
       <c r="F40" t="n">
-        <v>265.6508402984315</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G40" t="n">
-        <v>168.6503292474271</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H40" t="n">
-        <v>93.13546803956146</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218343</v>
@@ -7341,7 +7341,7 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1908.166416420297</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1787.1828578214</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T40" t="n">
-        <v>1636.118567965203</v>
+        <v>1608.741314380992</v>
       </c>
       <c r="U40" t="n">
-        <v>1417.718026665123</v>
+        <v>1414.537713402782</v>
       </c>
       <c r="V40" t="n">
-        <v>1233.735864033513</v>
+        <v>1254.752491093041</v>
       </c>
       <c r="W40" t="n">
-        <v>1015.021019570829</v>
+        <v>1060.234586952227</v>
       </c>
       <c r="X40" t="n">
-        <v>857.7337942470881</v>
+        <v>927.1443019503565</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.6435406778342</v>
+        <v>801.250988702973</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1458.00506252413</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C41" t="n">
-        <v>1112.295238209922</v>
+        <v>979.8546354718749</v>
       </c>
       <c r="D41" t="n">
-        <v>777.2822322293744</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="E41" t="n">
-        <v>414.7466722573334</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218343</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G41" t="n">
         <v>66.51211643218343</v>
@@ -7438,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3238.56784576247</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T41" t="n">
-        <v>3055.842790772895</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U41" t="n">
-        <v>2825.565006672935</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V41" t="n">
-        <v>2517.754811955568</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W41" t="n">
-        <v>2188.238849311657</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.238849311657</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y41" t="n">
-        <v>1821.352209962048</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>556.7072755045606</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C43" t="n">
-        <v>556.7072755045606</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D43" t="n">
-        <v>533.3329008146094</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E43" t="n">
-        <v>408.6724998584196</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F43" t="n">
-        <v>285.0352449867125</v>
+        <v>335.408918177042</v>
       </c>
       <c r="G43" t="n">
-        <v>140.5851009876348</v>
+        <v>215.1557144998342</v>
       </c>
       <c r="H43" t="n">
-        <v>140.5851009876348</v>
+        <v>116.3881606657653</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>134.4247129220608</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>361.201859913879</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>700.5516224053171</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
-        <v>1067.498632047808</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1431.696972796614</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1753.81653575997</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2009.214000236571</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2109.614260432028</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2043.036495815759</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>1874.603304268788</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1676.089381464518</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1410.239207216365</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
-        <v>1178.807411636681</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>912.6429342259238</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X43" t="n">
-        <v>912.6429342259238</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y43" t="n">
-        <v>715.1030477085969</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.488830956228</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C44" t="n">
-        <v>1436.779006642019</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D44" t="n">
-        <v>1101.766000661472</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E44" t="n">
-        <v>739.230440689431</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F44" t="n">
-        <v>739.230440689431</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G44" t="n">
-        <v>347.4106831606308</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>73.0797753956013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3238.567845762469</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3055.842790772894</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>2825.565006672934</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>2825.565006672934</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="W44" t="n">
-        <v>2496.049044029023</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X44" t="n">
-        <v>2145.835978394146</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y44" t="n">
-        <v>2145.835978394146</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7745,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.7342871031168</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C46" t="n">
-        <v>514.0507968014132</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D46" t="n">
-        <v>387.1868500152808</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E46" t="n">
-        <v>387.1868500152808</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F46" t="n">
-        <v>263.5495951435737</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G46" t="n">
-        <v>263.5495951435737</v>
+        <v>215.1557144998334</v>
       </c>
       <c r="H46" t="n">
-        <v>140.5851009876348</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>134.4247129220608</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K46" t="n">
-        <v>361.2018599138789</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L46" t="n">
-        <v>700.5516224053169</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M46" t="n">
-        <v>1067.498632047808</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N46" t="n">
-        <v>1431.696972796614</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1753.81653575997</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P46" t="n">
-        <v>2009.214000236571</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q46" t="n">
-        <v>2109.614260432028</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2043.036495815759</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S46" t="n">
-        <v>2043.036495815759</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T46" t="n">
-        <v>1983.853251334888</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U46" t="n">
-        <v>1718.003077086735</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V46" t="n">
-        <v>1486.571281507051</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W46" t="n">
-        <v>1220.406804096294</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X46" t="n">
-        <v>1015.66994582448</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y46" t="n">
-        <v>818.1300593071533</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>118.4532239242056</v>
+        <v>140.453445965093</v>
       </c>
       <c r="K8" t="n">
-        <v>126.2796483004594</v>
+        <v>159.2522781705138</v>
       </c>
       <c r="L8" t="n">
-        <v>119.3865631998466</v>
+        <v>160.2920261930258</v>
       </c>
       <c r="M8" t="n">
-        <v>100.8512241362365</v>
+        <v>146.36643335507</v>
       </c>
       <c r="N8" t="n">
-        <v>97.82268987559783</v>
+        <v>144.0743827642783</v>
       </c>
       <c r="O8" t="n">
-        <v>105.8411529806349</v>
+        <v>149.5153150318177</v>
       </c>
       <c r="P8" t="n">
-        <v>125.1824711644806</v>
+        <v>162.4573580377148</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.6661624892316</v>
+        <v>170.6580501802772</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55785490261908</v>
+        <v>102.6610364335623</v>
       </c>
       <c r="K9" t="n">
-        <v>74.12437119491788</v>
+        <v>96.51979547534759</v>
       </c>
       <c r="L9" t="n">
-        <v>52.87891897586429</v>
+        <v>82.99233068791776</v>
       </c>
       <c r="M9" t="n">
-        <v>42.15481221415749</v>
+        <v>77.29574332425402</v>
       </c>
       <c r="N9" t="n">
-        <v>28.71633787432447</v>
+        <v>64.78734486580126</v>
       </c>
       <c r="O9" t="n">
-        <v>48.71407653746284</v>
+        <v>81.71200089144253</v>
       </c>
       <c r="P9" t="n">
-        <v>58.62569087085014</v>
+        <v>85.10943431331825</v>
       </c>
       <c r="Q9" t="n">
-        <v>89.61315250759704</v>
+        <v>107.3168336401615</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>90.57937477674801</v>
+        <v>104.0882061675446</v>
       </c>
       <c r="L10" t="n">
-        <v>85.70253786011162</v>
+        <v>102.9891911124659</v>
       </c>
       <c r="M10" t="n">
-        <v>87.0701148271766</v>
+        <v>105.2964669141489</v>
       </c>
       <c r="N10" t="n">
-        <v>77.06288725336907</v>
+        <v>94.85585742561318</v>
       </c>
       <c r="O10" t="n">
-        <v>91.69832100218657</v>
+        <v>108.1330088319288</v>
       </c>
       <c r="P10" t="n">
-        <v>97.7182712892926</v>
+        <v>111.7809859076931</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9649,16 +9649,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>167.736966642836</v>
+        <v>52.18875040233539</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9886,13 +9886,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>343.5485285966295</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>287.0017854473907</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>62.52018570663745</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>306.6874953089235</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>19.40311602546575</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>21.74982042514685</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.56525766297251</v>
+        <v>14.82446880942105</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>106.4010846217542</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958322</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>141.4356779244586</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>13.21259662694786</v>
+        <v>225.1370133413213</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>286.7586765022537</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958323</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7508383240381136</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23980,10 +23980,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>345.9875814983119</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5.981554650711701</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.058708676282549e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>312.7385393449467</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>35.72085191940667</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.19245946964199</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>52.28225787287818</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>108.4061843351163</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>52.28225787287843</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>279.2456663988792</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>127.3463093107757</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>39.10366977487166</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>387.9015599535122</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>271.5875986873792</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
-        <v>18.55676407298469</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>346.7109349785277</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>144.2266553986866</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>102.4546763752194</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>121.7348492143795</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>202.6894896890959</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>383.8558800417701</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
-        <v>12.054781699201</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>304.7320927701936</v>
+        <v>160.0357106656244</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>363.2177729561123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>123.4137969466279</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>143.005642559087</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>166.7488596315006</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>137.9373715401661</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>743540.3558812961</v>
+        <v>757529.9158016151</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659610.4618465638</v>
+        <v>659610.4618465636</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659610.4618465637</v>
+        <v>659610.4618465635</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659610.4618465636</v>
+        <v>659610.4618465635</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681416.0836041761</v>
+        <v>704107.1902571592</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681416.0836041761</v>
+        <v>704107.1902571592</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>624013.2488545838</v>
+        <v>659610.4618465637</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>624013.2488545835</v>
+        <v>659610.4618465637</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453344</v>
       </c>
       <c r="C2" t="n">
         <v>737355.3326995481</v>
       </c>
       <c r="D2" t="n">
-        <v>737401.5379019435</v>
+        <v>737382.968015412</v>
       </c>
       <c r="E2" t="n">
-        <v>688077.9089008587</v>
+        <v>688077.9089008585</v>
       </c>
       <c r="F2" t="n">
+        <v>688077.9089008586</v>
+      </c>
+      <c r="G2" t="n">
+        <v>688077.9089008583</v>
+      </c>
+      <c r="H2" t="n">
         <v>688077.908900859</v>
       </c>
-      <c r="G2" t="n">
-        <v>688077.9089008592</v>
-      </c>
-      <c r="H2" t="n">
-        <v>688077.9089008585</v>
-      </c>
       <c r="I2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="J2" t="n">
         <v>738937.5928778553</v>
       </c>
       <c r="K2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="L2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="M2" t="n">
-        <v>711166.2142912712</v>
+        <v>735192.0919238417</v>
       </c>
       <c r="N2" t="n">
-        <v>711166.2142912712</v>
+        <v>735192.0919238415</v>
       </c>
       <c r="O2" t="n">
-        <v>650386.7422034678</v>
+        <v>688077.9089008588</v>
       </c>
       <c r="P2" t="n">
-        <v>650386.7422034678</v>
+        <v>688077.9089008585</v>
       </c>
     </row>
     <row r="3">
@@ -26371,25 +26371,25 @@
         <v>20956.03230135573</v>
       </c>
       <c r="D3" t="n">
-        <v>137398.5493195218</v>
+        <v>82178.02569434339</v>
       </c>
       <c r="E3" t="n">
-        <v>1013965.399123085</v>
+        <v>1065767.838529773</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902283</v>
+        <v>48646.25967902299</v>
       </c>
       <c r="J3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180016.5656650675</v>
+        <v>199180.5423999884</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,13 +26423,13 @@
         <v>424732.6838236327</v>
       </c>
       <c r="D4" t="n">
-        <v>383565.2806638863</v>
+        <v>400059.3517763159</v>
       </c>
       <c r="E4" t="n">
         <v>57605.61344858626</v>
       </c>
       <c r="F4" t="n">
-        <v>57605.61344858621</v>
+        <v>57605.61344858624</v>
       </c>
       <c r="G4" t="n">
         <v>57605.61344858621</v>
@@ -26438,28 +26438,28 @@
         <v>57605.61344858621</v>
       </c>
       <c r="I4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646586</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646592</v>
+        <v>80755.36360646586</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646594</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="M4" t="n">
-        <v>72131.91356884243</v>
+        <v>87368.78014028823</v>
       </c>
       <c r="N4" t="n">
-        <v>72131.91356884243</v>
+        <v>87368.78014028822</v>
       </c>
       <c r="O4" t="n">
-        <v>33643.27707532666</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="P4" t="n">
-        <v>33643.27707532667</v>
+        <v>57605.61344858622</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>34129.29174257201</v>
       </c>
       <c r="D5" t="n">
-        <v>37626.76886831443</v>
+        <v>36221.13162391057</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>80190.77563201013</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="N5" t="n">
-        <v>80190.77563201013</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="O5" t="n">
-        <v>76241.62287162166</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="P5" t="n">
-        <v>76241.62287162164</v>
+        <v>78255.49332178176</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272822.5954026588</v>
+        <v>272778.4596239774</v>
       </c>
       <c r="C6" t="n">
-        <v>257537.3248319877</v>
+        <v>257493.3731603681</v>
       </c>
       <c r="D6" t="n">
-        <v>178810.9390502211</v>
+        <v>218881.2748968854</v>
       </c>
       <c r="E6" t="n">
-        <v>-461748.5969925948</v>
+        <v>-514963.8053986436</v>
       </c>
       <c r="F6" t="n">
-        <v>552216.802130491</v>
+        <v>550804.0331311297</v>
       </c>
       <c r="G6" t="n">
-        <v>552216.802130491</v>
+        <v>550804.0331311293</v>
       </c>
       <c r="H6" t="n">
-        <v>552216.8021304909</v>
+        <v>550804.03313113</v>
       </c>
       <c r="I6" t="n">
-        <v>520158.0279175607</v>
+        <v>520158.0279175604</v>
       </c>
       <c r="J6" t="n">
         <v>531224.1783017092</v>
       </c>
       <c r="K6" t="n">
-        <v>568804.2875965836</v>
+        <v>568804.2875965834</v>
       </c>
       <c r="L6" t="n">
         <v>568804.2875965831</v>
       </c>
       <c r="M6" t="n">
-        <v>378826.9594253511</v>
+        <v>366334.0816082279</v>
       </c>
       <c r="N6" t="n">
-        <v>558843.5250904185</v>
+        <v>565514.6240082161</v>
       </c>
       <c r="O6" t="n">
-        <v>540501.8422565195</v>
+        <v>550804.0331311299</v>
       </c>
       <c r="P6" t="n">
-        <v>540501.8422565195</v>
+        <v>550804.0331311296</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
+        <v>46.97513661859258</v>
+      </c>
+      <c r="G2" t="n">
+        <v>46.97513661859253</v>
+      </c>
+      <c r="H2" t="n">
+        <v>46.97513661859253</v>
+      </c>
+      <c r="I2" t="n">
+        <v>46.97513661859253</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859249</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859249</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859255</v>
       </c>
-      <c r="G2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="H2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859258</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>93.95027323718509</v>
+      </c>
+      <c r="N2" t="n">
+        <v>93.95027323718509</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="M2" t="n">
-        <v>69.99530231853385</v>
-      </c>
-      <c r="N2" t="n">
-        <v>69.99530231853385</v>
-      </c>
-      <c r="O2" t="n">
-        <v>23.02016569994127</v>
-      </c>
       <c r="P2" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26743,16 +26743,16 @@
         <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>183.4481132254327</v>
+        <v>118.9693405463565</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26761,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593299</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
@@ -26831,7 +26831,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>23.02016569994128</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26965,19 +26965,19 @@
         <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>160.4347305386434</v>
+        <v>95.95595785956721</v>
       </c>
       <c r="E3" t="n">
-        <v>906.3285873678658</v>
+        <v>970.8073600469418</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.548626562703943e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063216</v>
+        <v>182.9350058063221</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>331.9220865798075</v>
+        <v>334.5767327333737</v>
       </c>
       <c r="I8" t="n">
-        <v>182.0441975699094</v>
+        <v>192.0374352933671</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>103.5433991777443</v>
+        <v>119.8260713558429</v>
       </c>
       <c r="S8" t="n">
-        <v>192.2147474550914</v>
+        <v>198.1215214547877</v>
       </c>
       <c r="T8" t="n">
-        <v>219.8675315112898</v>
+        <v>221.0022283048683</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2866545196635</v>
+        <v>251.3073914113794</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.9489306555182</v>
+        <v>137.087620845809</v>
       </c>
       <c r="H9" t="n">
-        <v>108.4245692806247</v>
+        <v>109.7640245394863</v>
       </c>
       <c r="I9" t="n">
-        <v>75.81108861726746</v>
+        <v>80.58616753736887</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>75.65885782415987</v>
+        <v>84.269815428358</v>
       </c>
       <c r="S9" t="n">
-        <v>164.3538997877085</v>
+        <v>166.9300092433301</v>
       </c>
       <c r="T9" t="n">
-        <v>198.5742681660087</v>
+        <v>199.1332869593301</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9154224423108</v>
+        <v>225.9245467969352</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.6601712854293</v>
+        <v>167.7764444820637</v>
       </c>
       <c r="H10" t="n">
-        <v>159.2859880035957</v>
+        <v>160.3197624245816</v>
       </c>
       <c r="I10" t="n">
-        <v>145.5021739674266</v>
+        <v>148.9988260989411</v>
       </c>
       <c r="J10" t="n">
-        <v>69.97104935348933</v>
+        <v>78.19156435554139</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46137815465404</v>
+        <v>68.19767282919454</v>
       </c>
       <c r="R10" t="n">
-        <v>162.4190574753172</v>
+        <v>167.6471232076239</v>
       </c>
       <c r="S10" t="n">
-        <v>218.2515155279042</v>
+        <v>220.2778402365236</v>
       </c>
       <c r="T10" t="n">
-        <v>226.5321367526101</v>
+        <v>227.0289404109571</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3009852797802</v>
+        <v>286.3073274541421</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859301</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859324</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292592</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y35" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I37" t="n">
-        <v>69.99530231853385</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.99530231853385</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T37" t="n">
-        <v>69.99530231853385</v>
+        <v>91.4899520546432</v>
       </c>
       <c r="U37" t="n">
-        <v>69.99530231853385</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>69.99530231853385</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>69.99530231853385</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="39">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F40" t="n">
-        <v>69.99530231853385</v>
+        <v>91.48995205464296</v>
       </c>
       <c r="G40" t="n">
-        <v>69.99530231853385</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>69.99530231853385</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>69.99530231853385</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.99530231853385</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T40" t="n">
-        <v>69.99530231853385</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.99530231853385</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
-        <v>23.02016569994127</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>23.02016569994127</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>23.02016569994127</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7374798521625431</v>
+        <v>0.4782687057139958</v>
       </c>
       <c r="H8" t="n">
-        <v>7.552715535959647</v>
+        <v>4.89806938239346</v>
       </c>
       <c r="I8" t="n">
-        <v>28.43169200049647</v>
+        <v>18.43845427703884</v>
       </c>
       <c r="J8" t="n">
-        <v>62.5926806024807</v>
+        <v>40.59245856159328</v>
       </c>
       <c r="K8" t="n">
-        <v>93.81020274452116</v>
+        <v>60.83757287446674</v>
       </c>
       <c r="L8" t="n">
-        <v>116.3798517701406</v>
+        <v>75.47438877696145</v>
       </c>
       <c r="M8" t="n">
-        <v>129.4950090910363</v>
+        <v>83.97979987220272</v>
       </c>
       <c r="N8" t="n">
-        <v>131.5903737209931</v>
+        <v>85.33868083231262</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2570584410518</v>
+        <v>80.58289638986906</v>
       </c>
       <c r="P8" t="n">
-        <v>106.050524590789</v>
+        <v>68.77563771755479</v>
       </c>
       <c r="Q8" t="n">
-        <v>79.63952738521787</v>
+        <v>51.6476396941723</v>
       </c>
       <c r="R8" t="n">
-        <v>46.32571876340539</v>
+        <v>30.04304658530681</v>
       </c>
       <c r="S8" t="n">
-        <v>16.80532213115397</v>
+        <v>10.89854813145769</v>
       </c>
       <c r="T8" t="n">
-        <v>3.228318052841534</v>
+        <v>2.093621259263017</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05899838817300344</v>
+        <v>0.03826149645711965</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3945865076924402</v>
+        <v>0.2558963174015971</v>
       </c>
       <c r="H9" t="n">
-        <v>3.810874955871726</v>
+        <v>2.471419697010162</v>
       </c>
       <c r="I9" t="n">
-        <v>13.58554423414762</v>
+        <v>8.810465314046217</v>
       </c>
       <c r="J9" t="n">
-        <v>37.27977176404762</v>
+        <v>24.1765902331044</v>
       </c>
       <c r="K9" t="n">
-        <v>63.71706777944111</v>
+        <v>41.3216434990114</v>
       </c>
       <c r="L9" t="n">
-        <v>85.67546080400989</v>
+        <v>55.56204909195642</v>
       </c>
       <c r="M9" t="n">
-        <v>99.97922170786083</v>
+        <v>64.8382905977643</v>
       </c>
       <c r="N9" t="n">
-        <v>102.6253742090088</v>
+        <v>66.55436721753205</v>
       </c>
       <c r="O9" t="n">
-        <v>93.88216790698159</v>
+        <v>60.88424355300192</v>
       </c>
       <c r="P9" t="n">
-        <v>75.34871654348011</v>
+        <v>48.86497310101199</v>
       </c>
       <c r="Q9" t="n">
-        <v>50.36862157842448</v>
+        <v>32.66494044586001</v>
       </c>
       <c r="R9" t="n">
-        <v>24.49897632848327</v>
+        <v>15.88801872428513</v>
       </c>
       <c r="S9" t="n">
-        <v>7.329271316129312</v>
+        <v>4.753161860507732</v>
       </c>
       <c r="T9" t="n">
-        <v>1.590460528812949</v>
+        <v>1.031441735491525</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02595963866397634</v>
+        <v>0.01683528403957876</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3308080730294689</v>
+        <v>0.2145348763950691</v>
       </c>
       <c r="H10" t="n">
-        <v>2.941184503843825</v>
+        <v>1.90741008285798</v>
       </c>
       <c r="I10" t="n">
-        <v>9.948300959831666</v>
+        <v>6.451648828317172</v>
       </c>
       <c r="J10" t="n">
-        <v>23.38813076318344</v>
+        <v>15.16761576113139</v>
       </c>
       <c r="K10" t="n">
-        <v>38.43388339378737</v>
+        <v>24.92505200299075</v>
       </c>
       <c r="L10" t="n">
-        <v>49.18213842112667</v>
+        <v>31.89548516877237</v>
       </c>
       <c r="M10" t="n">
-        <v>51.85566912042846</v>
+        <v>33.62931703345615</v>
       </c>
       <c r="N10" t="n">
-        <v>50.62265721186412</v>
+        <v>32.82968703962001</v>
       </c>
       <c r="O10" t="n">
-        <v>46.75821744965621</v>
+        <v>30.32352961991397</v>
       </c>
       <c r="P10" t="n">
-        <v>40.00973275985501</v>
+        <v>25.94701814145453</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.70066509704034</v>
+        <v>17.96437042249984</v>
       </c>
       <c r="R10" t="n">
-        <v>14.87433390185229</v>
+        <v>9.646268169545561</v>
       </c>
       <c r="S10" t="n">
-        <v>5.765082509068105</v>
+        <v>3.738757800448613</v>
       </c>
       <c r="T10" t="n">
-        <v>1.413452675671367</v>
+        <v>0.9166490173243861</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01804407671069832</v>
+        <v>0.01170190234882197</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31761,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970241</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31913,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233467</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.956561913878</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32946,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33098,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33742,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34228,10 +34228,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013284</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35819,10 +35819,10 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637019</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340039</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127273</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887903</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637034</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36287,7 +36287,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120771</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861326</v>
@@ -36369,16 +36369,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.5312714465555</v>
+        <v>302.9830552060549</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
-        <v>895.850364009541</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>685.7637716667626</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>253.3071866753501</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>814.7404961971429</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
         <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222484</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165874</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37086,13 +37086,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>418.1651022448376</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>81.36301896737163</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37311,13 +37311,13 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37390,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37478,7 +37478,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
@@ -37554,7 +37554,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.59858231300748</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
-        <v>229.0678252442608</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>342.7775378701394</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>370.6535450934251</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>367.8771118674813</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>325.3732959225811</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>257.9772368450517</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.4144042378349</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>68.59858231300746</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>229.0678252442608</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>342.7775378701393</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>370.6535450934251</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>367.8771118674813</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>325.373295922581</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>257.9772368450517</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.4144042378349</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
